--- a/page/eb11/t03/eb11-t03.xlsx
+++ b/page/eb11/t03/eb11-t03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\production\eb11\t03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LIB-DSC-FS\Peter Logan\eb-corpus\production\eb11\t03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0318619-13F6-4808-AA68-D248BE008C21}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66ED1B6-2465-4DDC-AD1C-7479C8E6D712}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15855" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="5325" windowWidth="23190" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s05" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="514">
   <si>
     <t>image-fn.jp2</t>
   </si>
@@ -36,9 +36,6 @@
     <t>p-pg</t>
   </si>
   <si>
-    <t>output-fn.htm</t>
-  </si>
-  <si>
     <t>scan-by</t>
   </si>
   <si>
@@ -802,6 +799,774 @@
   </si>
   <si>
     <t>eb11-t03</t>
+  </si>
+  <si>
+    <t>equations</t>
+  </si>
+  <si>
+    <t>verse</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>equation</t>
+  </si>
+  <si>
+    <t>greek</t>
+  </si>
+  <si>
+    <t>table and equation</t>
+  </si>
+  <si>
+    <t>tables</t>
+  </si>
+  <si>
+    <t>mh</t>
+  </si>
+  <si>
+    <t>output-fn.docx</t>
+  </si>
+  <si>
+    <t>eb11-t03-0001</t>
+  </si>
+  <si>
+    <t>eb11-t03-0002</t>
+  </si>
+  <si>
+    <t>eb11-t03-0003</t>
+  </si>
+  <si>
+    <t>eb11-t03-0004</t>
+  </si>
+  <si>
+    <t>eb11-t03-0005</t>
+  </si>
+  <si>
+    <t>eb11-t03-0006</t>
+  </si>
+  <si>
+    <t>eb11-t03-0007</t>
+  </si>
+  <si>
+    <t>eb11-t03-0008</t>
+  </si>
+  <si>
+    <t>eb11-t03-0009</t>
+  </si>
+  <si>
+    <t>eb11-t03-0010</t>
+  </si>
+  <si>
+    <t>eb11-t03-0011</t>
+  </si>
+  <si>
+    <t>eb11-t03-0012</t>
+  </si>
+  <si>
+    <t>eb11-t03-0013</t>
+  </si>
+  <si>
+    <t>eb11-t03-0014</t>
+  </si>
+  <si>
+    <t>eb11-t03-0015</t>
+  </si>
+  <si>
+    <t>eb11-t03-0016</t>
+  </si>
+  <si>
+    <t>eb11-t03-0017</t>
+  </si>
+  <si>
+    <t>eb11-t03-0018</t>
+  </si>
+  <si>
+    <t>eb11-t03-0019</t>
+  </si>
+  <si>
+    <t>eb11-t03-0020</t>
+  </si>
+  <si>
+    <t>eb11-t03-0021</t>
+  </si>
+  <si>
+    <t>eb11-t03-0022</t>
+  </si>
+  <si>
+    <t>eb11-t03-0023</t>
+  </si>
+  <si>
+    <t>eb11-t03-0024</t>
+  </si>
+  <si>
+    <t>eb11-t03-0025</t>
+  </si>
+  <si>
+    <t>eb11-t03-0026</t>
+  </si>
+  <si>
+    <t>eb11-t03-0027</t>
+  </si>
+  <si>
+    <t>eb11-t03-0028</t>
+  </si>
+  <si>
+    <t>eb11-t03-0029</t>
+  </si>
+  <si>
+    <t>eb11-t03-0030</t>
+  </si>
+  <si>
+    <t>eb11-t03-0031</t>
+  </si>
+  <si>
+    <t>eb11-t03-0032</t>
+  </si>
+  <si>
+    <t>eb11-t03-0033</t>
+  </si>
+  <si>
+    <t>eb11-t03-0034</t>
+  </si>
+  <si>
+    <t>eb11-t03-0035</t>
+  </si>
+  <si>
+    <t>eb11-t03-0036</t>
+  </si>
+  <si>
+    <t>eb11-t03-0037</t>
+  </si>
+  <si>
+    <t>eb11-t03-0038</t>
+  </si>
+  <si>
+    <t>eb11-t03-0039</t>
+  </si>
+  <si>
+    <t>eb11-t03-0040</t>
+  </si>
+  <si>
+    <t>eb11-t03-0041</t>
+  </si>
+  <si>
+    <t>eb11-t03-0042</t>
+  </si>
+  <si>
+    <t>eb11-t03-0043</t>
+  </si>
+  <si>
+    <t>eb11-t03-0044</t>
+  </si>
+  <si>
+    <t>eb11-t03-0045</t>
+  </si>
+  <si>
+    <t>eb11-t03-0046</t>
+  </si>
+  <si>
+    <t>eb11-t03-0047</t>
+  </si>
+  <si>
+    <t>eb11-t03-0048</t>
+  </si>
+  <si>
+    <t>eb11-t03-0049</t>
+  </si>
+  <si>
+    <t>eb11-t03-0050</t>
+  </si>
+  <si>
+    <t>eb11-t03-0051</t>
+  </si>
+  <si>
+    <t>eb11-t03-0052</t>
+  </si>
+  <si>
+    <t>eb11-t03-0053</t>
+  </si>
+  <si>
+    <t>eb11-t03-0054</t>
+  </si>
+  <si>
+    <t>eb11-t03-0055</t>
+  </si>
+  <si>
+    <t>eb11-t03-0056</t>
+  </si>
+  <si>
+    <t>eb11-t03-0057</t>
+  </si>
+  <si>
+    <t>eb11-t03-0058</t>
+  </si>
+  <si>
+    <t>eb11-t03-0059</t>
+  </si>
+  <si>
+    <t>eb11-t03-0060</t>
+  </si>
+  <si>
+    <t>eb11-t03-0061</t>
+  </si>
+  <si>
+    <t>eb11-t03-0062</t>
+  </si>
+  <si>
+    <t>eb11-t03-0063</t>
+  </si>
+  <si>
+    <t>eb11-t03-0064</t>
+  </si>
+  <si>
+    <t>eb11-t03-0065</t>
+  </si>
+  <si>
+    <t>eb11-t03-0066</t>
+  </si>
+  <si>
+    <t>eb11-t03-0067</t>
+  </si>
+  <si>
+    <t>eb11-t03-0068</t>
+  </si>
+  <si>
+    <t>eb11-t03-0069</t>
+  </si>
+  <si>
+    <t>eb11-t03-0070</t>
+  </si>
+  <si>
+    <t>eb11-t03-0071</t>
+  </si>
+  <si>
+    <t>eb11-t03-0072</t>
+  </si>
+  <si>
+    <t>eb11-t03-0073</t>
+  </si>
+  <si>
+    <t>eb11-t03-0074</t>
+  </si>
+  <si>
+    <t>eb11-t03-0075</t>
+  </si>
+  <si>
+    <t>eb11-t03-0076</t>
+  </si>
+  <si>
+    <t>eb11-t03-0077</t>
+  </si>
+  <si>
+    <t>eb11-t03-0078</t>
+  </si>
+  <si>
+    <t>eb11-t03-0079</t>
+  </si>
+  <si>
+    <t>eb11-t03-0080</t>
+  </si>
+  <si>
+    <t>eb11-t03-0081</t>
+  </si>
+  <si>
+    <t>eb11-t03-0082</t>
+  </si>
+  <si>
+    <t>eb11-t03-0083</t>
+  </si>
+  <si>
+    <t>eb11-t03-0084</t>
+  </si>
+  <si>
+    <t>eb11-t03-0085</t>
+  </si>
+  <si>
+    <t>eb11-t03-0086</t>
+  </si>
+  <si>
+    <t>eb11-t03-0087</t>
+  </si>
+  <si>
+    <t>eb11-t03-0088</t>
+  </si>
+  <si>
+    <t>eb11-t03-0089</t>
+  </si>
+  <si>
+    <t>eb11-t03-0090</t>
+  </si>
+  <si>
+    <t>eb11-t03-0091</t>
+  </si>
+  <si>
+    <t>eb11-t03-0092</t>
+  </si>
+  <si>
+    <t>eb11-t03-0093</t>
+  </si>
+  <si>
+    <t>eb11-t03-0094</t>
+  </si>
+  <si>
+    <t>eb11-t03-0095</t>
+  </si>
+  <si>
+    <t>eb11-t03-0096</t>
+  </si>
+  <si>
+    <t>eb11-t03-0097</t>
+  </si>
+  <si>
+    <t>eb11-t03-0098</t>
+  </si>
+  <si>
+    <t>eb11-t03-0099</t>
+  </si>
+  <si>
+    <t>eb11-t03-0100</t>
+  </si>
+  <si>
+    <t>eb11-t03-0101</t>
+  </si>
+  <si>
+    <t>eb11-t03-0102</t>
+  </si>
+  <si>
+    <t>eb11-t03-0103</t>
+  </si>
+  <si>
+    <t>eb11-t03-0104</t>
+  </si>
+  <si>
+    <t>eb11-t03-0105</t>
+  </si>
+  <si>
+    <t>eb11-t03-0106</t>
+  </si>
+  <si>
+    <t>eb11-t03-0107</t>
+  </si>
+  <si>
+    <t>eb11-t03-0108</t>
+  </si>
+  <si>
+    <t>eb11-t03-0109</t>
+  </si>
+  <si>
+    <t>eb11-t03-0110</t>
+  </si>
+  <si>
+    <t>eb11-t03-0111</t>
+  </si>
+  <si>
+    <t>eb11-t03-0112</t>
+  </si>
+  <si>
+    <t>eb11-t03-0113</t>
+  </si>
+  <si>
+    <t>eb11-t03-0114</t>
+  </si>
+  <si>
+    <t>eb11-t03-0115</t>
+  </si>
+  <si>
+    <t>eb11-t03-0116</t>
+  </si>
+  <si>
+    <t>eb11-t03-0117</t>
+  </si>
+  <si>
+    <t>eb11-t03-0118</t>
+  </si>
+  <si>
+    <t>eb11-t03-0119</t>
+  </si>
+  <si>
+    <t>eb11-t03-0120</t>
+  </si>
+  <si>
+    <t>eb11-t03-0121</t>
+  </si>
+  <si>
+    <t>eb11-t03-0122</t>
+  </si>
+  <si>
+    <t>eb11-t03-0123</t>
+  </si>
+  <si>
+    <t>eb11-t03-0124</t>
+  </si>
+  <si>
+    <t>eb11-t03-0125</t>
+  </si>
+  <si>
+    <t>eb11-t03-0126</t>
+  </si>
+  <si>
+    <t>eb11-t03-0127</t>
+  </si>
+  <si>
+    <t>eb11-t03-0128</t>
+  </si>
+  <si>
+    <t>eb11-t03-0129</t>
+  </si>
+  <si>
+    <t>eb11-t03-0130</t>
+  </si>
+  <si>
+    <t>eb11-t03-0131</t>
+  </si>
+  <si>
+    <t>eb11-t03-0132</t>
+  </si>
+  <si>
+    <t>eb11-t03-0133</t>
+  </si>
+  <si>
+    <t>eb11-t03-0134</t>
+  </si>
+  <si>
+    <t>eb11-t03-0135</t>
+  </si>
+  <si>
+    <t>eb11-t03-0136</t>
+  </si>
+  <si>
+    <t>eb11-t03-0137</t>
+  </si>
+  <si>
+    <t>eb11-t03-0138</t>
+  </si>
+  <si>
+    <t>eb11-t03-0139</t>
+  </si>
+  <si>
+    <t>eb11-t03-0140</t>
+  </si>
+  <si>
+    <t>eb11-t03-0141</t>
+  </si>
+  <si>
+    <t>eb11-t03-0142</t>
+  </si>
+  <si>
+    <t>eb11-t03-0143</t>
+  </si>
+  <si>
+    <t>eb11-t03-0144</t>
+  </si>
+  <si>
+    <t>eb11-t03-0145</t>
+  </si>
+  <si>
+    <t>eb11-t03-0146</t>
+  </si>
+  <si>
+    <t>eb11-t03-0147</t>
+  </si>
+  <si>
+    <t>eb11-t03-0148</t>
+  </si>
+  <si>
+    <t>eb11-t03-0149</t>
+  </si>
+  <si>
+    <t>eb11-t03-0150</t>
+  </si>
+  <si>
+    <t>eb11-t03-0151</t>
+  </si>
+  <si>
+    <t>eb11-t03-0152</t>
+  </si>
+  <si>
+    <t>eb11-t03-0153</t>
+  </si>
+  <si>
+    <t>eb11-t03-0154</t>
+  </si>
+  <si>
+    <t>eb11-t03-0155</t>
+  </si>
+  <si>
+    <t>eb11-t03-0156</t>
+  </si>
+  <si>
+    <t>eb11-t03-0157</t>
+  </si>
+  <si>
+    <t>eb11-t03-0158</t>
+  </si>
+  <si>
+    <t>eb11-t03-0159</t>
+  </si>
+  <si>
+    <t>eb11-t03-0160</t>
+  </si>
+  <si>
+    <t>eb11-t03-0161</t>
+  </si>
+  <si>
+    <t>eb11-t03-0162</t>
+  </si>
+  <si>
+    <t>eb11-t03-0163</t>
+  </si>
+  <si>
+    <t>eb11-t03-0164</t>
+  </si>
+  <si>
+    <t>eb11-t03-0165</t>
+  </si>
+  <si>
+    <t>eb11-t03-0166</t>
+  </si>
+  <si>
+    <t>eb11-t03-0167</t>
+  </si>
+  <si>
+    <t>eb11-t03-0168</t>
+  </si>
+  <si>
+    <t>eb11-t03-0169</t>
+  </si>
+  <si>
+    <t>eb11-t03-0170</t>
+  </si>
+  <si>
+    <t>eb11-t03-0171</t>
+  </si>
+  <si>
+    <t>eb11-t03-0172</t>
+  </si>
+  <si>
+    <t>eb11-t03-0173</t>
+  </si>
+  <si>
+    <t>eb11-t03-0174</t>
+  </si>
+  <si>
+    <t>eb11-t03-0175</t>
+  </si>
+  <si>
+    <t>eb11-t03-0176</t>
+  </si>
+  <si>
+    <t>eb11-t03-0177</t>
+  </si>
+  <si>
+    <t>eb11-t03-0178</t>
+  </si>
+  <si>
+    <t>eb11-t03-0179</t>
+  </si>
+  <si>
+    <t>eb11-t03-0180</t>
+  </si>
+  <si>
+    <t>eb11-t03-0181</t>
+  </si>
+  <si>
+    <t>eb11-t03-0182</t>
+  </si>
+  <si>
+    <t>eb11-t03-0183</t>
+  </si>
+  <si>
+    <t>eb11-t03-0184</t>
+  </si>
+  <si>
+    <t>eb11-t03-0185</t>
+  </si>
+  <si>
+    <t>eb11-t03-0186</t>
+  </si>
+  <si>
+    <t>eb11-t03-0187</t>
+  </si>
+  <si>
+    <t>eb11-t03-0188</t>
+  </si>
+  <si>
+    <t>eb11-t03-0189</t>
+  </si>
+  <si>
+    <t>eb11-t03-0190</t>
+  </si>
+  <si>
+    <t>eb11-t03-0191</t>
+  </si>
+  <si>
+    <t>eb11-t03-0192</t>
+  </si>
+  <si>
+    <t>eb11-t03-0193</t>
+  </si>
+  <si>
+    <t>eb11-t03-0194</t>
+  </si>
+  <si>
+    <t>eb11-t03-0195</t>
+  </si>
+  <si>
+    <t>eb11-t03-0196</t>
+  </si>
+  <si>
+    <t>eb11-t03-0197</t>
+  </si>
+  <si>
+    <t>eb11-t03-0198</t>
+  </si>
+  <si>
+    <t>eb11-t03-0199</t>
+  </si>
+  <si>
+    <t>eb11-t03-0200</t>
+  </si>
+  <si>
+    <t>eb11-t03-0201</t>
+  </si>
+  <si>
+    <t>eb11-t03-0202</t>
+  </si>
+  <si>
+    <t>eb11-t03-0203</t>
+  </si>
+  <si>
+    <t>eb11-t03-0204</t>
+  </si>
+  <si>
+    <t>eb11-t03-0205</t>
+  </si>
+  <si>
+    <t>eb11-t03-0206</t>
+  </si>
+  <si>
+    <t>eb11-t03-0207</t>
+  </si>
+  <si>
+    <t>eb11-t03-0208</t>
+  </si>
+  <si>
+    <t>eb11-t03-0209</t>
+  </si>
+  <si>
+    <t>eb11-t03-0210</t>
+  </si>
+  <si>
+    <t>eb11-t03-0211</t>
+  </si>
+  <si>
+    <t>eb11-t03-0212</t>
+  </si>
+  <si>
+    <t>eb11-t03-0213</t>
+  </si>
+  <si>
+    <t>eb11-t03-0214</t>
+  </si>
+  <si>
+    <t>eb11-t03-0215</t>
+  </si>
+  <si>
+    <t>eb11-t03-0216</t>
+  </si>
+  <si>
+    <t>eb11-t03-0217</t>
+  </si>
+  <si>
+    <t>eb11-t03-0218</t>
+  </si>
+  <si>
+    <t>eb11-t03-0219</t>
+  </si>
+  <si>
+    <t>eb11-t03-0220</t>
+  </si>
+  <si>
+    <t>eb11-t03-0221</t>
+  </si>
+  <si>
+    <t>eb11-t03-0222</t>
+  </si>
+  <si>
+    <t>eb11-t03-0223</t>
+  </si>
+  <si>
+    <t>eb11-t03-0224</t>
+  </si>
+  <si>
+    <t>eb11-t03-0225</t>
+  </si>
+  <si>
+    <t>eb11-t03-0226</t>
+  </si>
+  <si>
+    <t>eb11-t03-0227</t>
+  </si>
+  <si>
+    <t>eb11-t03-0228</t>
+  </si>
+  <si>
+    <t>eb11-t03-0229</t>
+  </si>
+  <si>
+    <t>eb11-t03-0230</t>
+  </si>
+  <si>
+    <t>eb11-t03-0231</t>
+  </si>
+  <si>
+    <t>eb11-t03-0232</t>
+  </si>
+  <si>
+    <t>eb11-t03-0233</t>
+  </si>
+  <si>
+    <t>eb11-t03-0234</t>
+  </si>
+  <si>
+    <t>eb11-t03-0235</t>
+  </si>
+  <si>
+    <t>eb11-t03-0236</t>
+  </si>
+  <si>
+    <t>eb11-t03-0237</t>
+  </si>
+  <si>
+    <t>eb11-t03-0238</t>
+  </si>
+  <si>
+    <t>eb11-t03-0239</t>
+  </si>
+  <si>
+    <t>eb11-t03-0240</t>
+  </si>
+  <si>
+    <t>eb11-t03-0241</t>
+  </si>
+  <si>
+    <t>eb11-t03-0242</t>
+  </si>
+  <si>
+    <t>eb11-t03-0243</t>
+  </si>
+  <si>
+    <t>eb11-t03-0244</t>
+  </si>
+  <si>
+    <t>eb11-t03-0245</t>
+  </si>
+  <si>
+    <t>eb11-t03-0246</t>
+  </si>
+  <si>
+    <t>eb11-t03-0247</t>
   </si>
 </sst>
 </file>
@@ -1186,8 +1951,8 @@
   <dimension ref="A1:L263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E240" sqref="E240"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1969,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1216,34 +1981,34 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4">
         <v>26</v>
@@ -1251,7 +2016,15 @@
       <c r="D2">
         <v>818</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" s="11">
+        <v>43614</v>
+      </c>
       <c r="H2" s="13"/>
       <c r="I2" s="16"/>
       <c r="J2" s="5"/>
@@ -1261,7 +2034,7 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4">
         <v>26</v>
@@ -1269,7 +2042,9 @@
       <c r="D3">
         <v>819</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>268</v>
+      </c>
       <c r="H3" s="13"/>
       <c r="I3" s="16"/>
       <c r="J3" s="5"/>
@@ -1279,7 +2054,7 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4">
         <v>26</v>
@@ -1287,7 +2062,9 @@
       <c r="D4">
         <v>820</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>269</v>
+      </c>
       <c r="H4" s="13"/>
       <c r="I4" s="16"/>
       <c r="J4" s="5"/>
@@ -1297,7 +2074,7 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4">
         <v>26</v>
@@ -1305,7 +2082,9 @@
       <c r="D5">
         <v>821</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="16"/>
@@ -1316,7 +2095,7 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4">
         <v>26</v>
@@ -1324,7 +2103,9 @@
       <c r="D6">
         <v>822</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="16"/>
       <c r="J6" s="5"/>
@@ -1334,7 +2115,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4">
         <v>26</v>
@@ -1342,7 +2123,9 @@
       <c r="D7">
         <v>823</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>272</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="16"/>
       <c r="J7" s="5"/>
@@ -1352,7 +2135,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4">
         <v>26</v>
@@ -1360,7 +2143,9 @@
       <c r="D8">
         <v>824</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>273</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="16"/>
       <c r="J8" s="5"/>
@@ -1370,7 +2155,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4">
         <v>26</v>
@@ -1378,7 +2163,9 @@
       <c r="D9">
         <v>825</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>274</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="16"/>
       <c r="J9" s="5"/>
@@ -1388,7 +2175,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4">
         <v>26</v>
@@ -1396,7 +2183,9 @@
       <c r="D10">
         <v>826</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>275</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="16"/>
       <c r="J10" s="5"/>
@@ -1406,7 +2195,7 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4">
         <v>26</v>
@@ -1414,7 +2203,9 @@
       <c r="D11">
         <v>827</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>276</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="16"/>
       <c r="J11" s="5"/>
@@ -1424,7 +2215,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4">
         <v>26</v>
@@ -1432,7 +2223,9 @@
       <c r="D12">
         <v>828</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>277</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="16"/>
       <c r="J12" s="5"/>
@@ -1442,7 +2235,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4">
         <v>26</v>
@@ -1450,7 +2243,9 @@
       <c r="D13">
         <v>829</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="16"/>
       <c r="J13" s="5"/>
@@ -1460,7 +2255,7 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4">
         <v>26</v>
@@ -1468,7 +2263,9 @@
       <c r="D14">
         <v>830</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>279</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="16"/>
       <c r="J14" s="5"/>
@@ -1478,7 +2275,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4">
         <v>26</v>
@@ -1486,7 +2283,9 @@
       <c r="D15">
         <v>831</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>280</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="16"/>
       <c r="J15" s="5"/>
@@ -1496,7 +2295,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4">
         <v>26</v>
@@ -1504,7 +2303,9 @@
       <c r="D16">
         <v>832</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>281</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="16"/>
       <c r="J16" s="5"/>
@@ -1514,7 +2315,7 @@
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4">
         <v>26</v>
@@ -1522,7 +2323,9 @@
       <c r="D17">
         <v>833</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>282</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="16"/>
       <c r="J17" s="5"/>
@@ -1532,7 +2335,7 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4">
         <v>26</v>
@@ -1540,7 +2343,9 @@
       <c r="D18">
         <v>834</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>283</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="16"/>
       <c r="J18" s="5"/>
@@ -1550,7 +2355,7 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="4">
         <v>26</v>
@@ -1558,7 +2363,9 @@
       <c r="D19">
         <v>835</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="H19" s="13"/>
       <c r="I19" s="16"/>
       <c r="J19" s="5"/>
@@ -1568,7 +2375,7 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="4">
         <v>26</v>
@@ -1576,7 +2383,9 @@
       <c r="D20">
         <v>836</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>285</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="16"/>
       <c r="J20" s="5"/>
@@ -1586,7 +2395,7 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="4">
         <v>26</v>
@@ -1594,7 +2403,9 @@
       <c r="D21">
         <v>837</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>286</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="16"/>
       <c r="J21" s="5"/>
@@ -1604,7 +2415,7 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="4">
         <v>26</v>
@@ -1612,7 +2423,9 @@
       <c r="D22">
         <v>838</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>287</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="16"/>
       <c r="J22" s="5"/>
@@ -1622,7 +2435,7 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="4">
         <v>26</v>
@@ -1630,7 +2443,9 @@
       <c r="D23">
         <v>839</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>288</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="16"/>
       <c r="J23" s="5"/>
@@ -1640,7 +2455,7 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4">
         <v>26</v>
@@ -1648,7 +2463,9 @@
       <c r="D24">
         <v>840</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>289</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="16"/>
       <c r="J24" s="5"/>
@@ -1658,7 +2475,7 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="4">
         <v>26</v>
@@ -1666,7 +2483,9 @@
       <c r="D25">
         <v>841</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>290</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="16"/>
       <c r="J25" s="5"/>
@@ -1676,7 +2495,7 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="4">
         <v>26</v>
@@ -1684,7 +2503,9 @@
       <c r="D26">
         <v>842</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>291</v>
+      </c>
       <c r="H26" s="13"/>
       <c r="I26" s="16"/>
       <c r="J26" s="5"/>
@@ -1694,7 +2515,7 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="4">
         <v>26</v>
@@ -1702,7 +2523,9 @@
       <c r="D27">
         <v>843</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>292</v>
+      </c>
       <c r="H27" s="13"/>
       <c r="I27" s="16"/>
       <c r="J27" s="5"/>
@@ -1712,7 +2535,7 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="4">
         <v>26</v>
@@ -1720,17 +2543,21 @@
       <c r="D28">
         <v>844</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="H28" s="13"/>
       <c r="I28" s="16"/>
       <c r="J28" s="5"/>
       <c r="K28" s="18"/>
-      <c r="L28" s="3"/>
+      <c r="L28" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="4">
         <v>26</v>
@@ -1738,17 +2565,21 @@
       <c r="D29">
         <v>845</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>294</v>
+      </c>
       <c r="H29" s="13"/>
       <c r="I29" s="16"/>
       <c r="J29" s="5"/>
       <c r="K29" s="18"/>
-      <c r="L29" s="9"/>
+      <c r="L29" s="9" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="4">
         <v>26</v>
@@ -1756,7 +2587,9 @@
       <c r="D30">
         <v>846</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>295</v>
+      </c>
       <c r="H30" s="13"/>
       <c r="I30" s="16"/>
       <c r="J30" s="5"/>
@@ -1766,7 +2599,7 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="4">
         <v>26</v>
@@ -1774,7 +2607,9 @@
       <c r="D31">
         <v>847</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="H31" s="13"/>
       <c r="I31" s="16"/>
       <c r="J31" s="5"/>
@@ -1784,7 +2619,7 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="4">
         <v>26</v>
@@ -1792,7 +2627,9 @@
       <c r="D32">
         <v>848</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="H32" s="13"/>
       <c r="I32" s="16"/>
       <c r="J32" s="5"/>
@@ -1802,7 +2639,7 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="4">
         <v>26</v>
@@ -1810,7 +2647,9 @@
       <c r="D33">
         <v>849</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="H33" s="13"/>
       <c r="I33" s="16"/>
       <c r="J33" s="5"/>
@@ -1820,7 +2659,7 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="4">
         <v>26</v>
@@ -1828,17 +2667,21 @@
       <c r="D34">
         <v>850</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>299</v>
+      </c>
       <c r="H34" s="13"/>
       <c r="I34" s="16"/>
       <c r="J34" s="5"/>
       <c r="K34" s="18"/>
-      <c r="L34" s="3"/>
+      <c r="L34" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="4">
         <v>26</v>
@@ -1846,7 +2689,9 @@
       <c r="D35">
         <v>851</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>300</v>
+      </c>
       <c r="H35" s="13"/>
       <c r="I35" s="16"/>
       <c r="J35" s="5"/>
@@ -1856,7 +2701,7 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="4">
         <v>26</v>
@@ -1864,7 +2709,9 @@
       <c r="D36">
         <v>852</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="H36" s="13"/>
       <c r="I36" s="16"/>
       <c r="J36" s="5"/>
@@ -1874,7 +2721,7 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="4">
         <v>26</v>
@@ -1882,7 +2729,9 @@
       <c r="D37">
         <v>853</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="H37" s="13"/>
       <c r="I37" s="16"/>
       <c r="J37" s="5"/>
@@ -1892,7 +2741,7 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="4">
         <v>26</v>
@@ -1900,7 +2749,9 @@
       <c r="D38">
         <v>854</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="H38" s="13"/>
       <c r="I38" s="16"/>
       <c r="J38" s="5"/>
@@ -1910,7 +2761,7 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="4">
         <v>26</v>
@@ -1918,7 +2769,9 @@
       <c r="D39">
         <v>855</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="H39" s="13"/>
       <c r="I39" s="16"/>
       <c r="J39" s="5"/>
@@ -1928,7 +2781,7 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="4">
         <v>26</v>
@@ -1936,7 +2789,9 @@
       <c r="D40">
         <v>856</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="H40" s="13"/>
       <c r="I40" s="16"/>
       <c r="J40" s="5"/>
@@ -1946,7 +2801,7 @@
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="4">
         <v>26</v>
@@ -1954,7 +2809,9 @@
       <c r="D41">
         <v>857</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="H41" s="13"/>
       <c r="I41" s="16"/>
       <c r="J41" s="5"/>
@@ -1964,7 +2821,7 @@
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="4">
         <v>26</v>
@@ -1972,7 +2829,9 @@
       <c r="D42">
         <v>858</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="H42" s="13"/>
       <c r="I42" s="16"/>
       <c r="J42" s="5"/>
@@ -1982,7 +2841,7 @@
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="4">
         <v>26</v>
@@ -1990,7 +2849,9 @@
       <c r="D43">
         <v>859</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="H43" s="13"/>
       <c r="I43" s="16"/>
       <c r="J43" s="5"/>
@@ -2000,7 +2861,7 @@
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="4">
         <v>26</v>
@@ -2008,7 +2869,9 @@
       <c r="D44">
         <v>860</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="E44" s="5" t="s">
+        <v>309</v>
+      </c>
       <c r="H44" s="13"/>
       <c r="I44" s="16"/>
       <c r="J44" s="5"/>
@@ -2018,7 +2881,7 @@
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="4">
         <v>26</v>
@@ -2026,7 +2889,9 @@
       <c r="D45">
         <v>861</v>
       </c>
-      <c r="E45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="H45" s="13"/>
       <c r="I45" s="16"/>
       <c r="J45" s="5"/>
@@ -2036,7 +2901,7 @@
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="4">
         <v>26</v>
@@ -2044,7 +2909,9 @@
       <c r="D46">
         <v>862</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="H46" s="13"/>
       <c r="I46" s="16"/>
       <c r="J46" s="5"/>
@@ -2054,7 +2921,7 @@
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="4">
         <v>26</v>
@@ -2062,7 +2929,9 @@
       <c r="D47">
         <v>863</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>312</v>
+      </c>
       <c r="H47" s="13"/>
       <c r="I47" s="16"/>
       <c r="J47" s="5"/>
@@ -2072,7 +2941,7 @@
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="4">
         <v>26</v>
@@ -2080,7 +2949,9 @@
       <c r="D48">
         <v>864</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>313</v>
+      </c>
       <c r="H48" s="13"/>
       <c r="I48" s="16"/>
       <c r="J48" s="5"/>
@@ -2090,7 +2961,7 @@
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="4">
         <v>26</v>
@@ -2098,7 +2969,9 @@
       <c r="D49">
         <v>865</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>314</v>
+      </c>
       <c r="H49" s="13"/>
       <c r="I49" s="16"/>
       <c r="J49" s="5"/>
@@ -2108,7 +2981,7 @@
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="4">
         <v>26</v>
@@ -2116,7 +2989,9 @@
       <c r="D50">
         <v>866</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>315</v>
+      </c>
       <c r="H50" s="13"/>
       <c r="I50" s="16"/>
       <c r="J50" s="5"/>
@@ -2126,7 +3001,7 @@
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="4">
         <v>26</v>
@@ -2134,7 +3009,9 @@
       <c r="D51">
         <v>867</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>316</v>
+      </c>
       <c r="H51" s="13"/>
       <c r="I51" s="16"/>
       <c r="J51" s="5"/>
@@ -2144,7 +3021,7 @@
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" s="4">
         <v>26</v>
@@ -2152,7 +3029,9 @@
       <c r="D52">
         <v>868</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>317</v>
+      </c>
       <c r="H52" s="13"/>
       <c r="I52" s="16"/>
       <c r="J52" s="5"/>
@@ -2162,7 +3041,7 @@
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" s="4">
         <v>26</v>
@@ -2170,7 +3049,9 @@
       <c r="D53">
         <v>869</v>
       </c>
-      <c r="E53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="H53" s="13"/>
       <c r="I53" s="16"/>
       <c r="J53" s="5"/>
@@ -2180,7 +3061,7 @@
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54" s="4">
         <v>26</v>
@@ -2188,7 +3069,9 @@
       <c r="D54">
         <v>870</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>319</v>
+      </c>
       <c r="H54" s="13"/>
       <c r="I54" s="16"/>
       <c r="J54" s="5"/>
@@ -2198,7 +3081,7 @@
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" s="4">
         <v>26</v>
@@ -2206,7 +3089,9 @@
       <c r="D55">
         <v>871</v>
       </c>
-      <c r="E55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>320</v>
+      </c>
       <c r="H55" s="13"/>
       <c r="I55" s="16"/>
       <c r="J55" s="5"/>
@@ -2216,7 +3101,7 @@
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" s="4">
         <v>26</v>
@@ -2224,7 +3109,9 @@
       <c r="D56">
         <v>872</v>
       </c>
-      <c r="E56" s="5"/>
+      <c r="E56" s="5" t="s">
+        <v>321</v>
+      </c>
       <c r="H56" s="13"/>
       <c r="I56" s="16"/>
       <c r="J56" s="5"/>
@@ -2234,7 +3121,7 @@
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" s="4">
         <v>26</v>
@@ -2242,17 +3129,21 @@
       <c r="D57">
         <v>873</v>
       </c>
-      <c r="E57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>322</v>
+      </c>
       <c r="H57" s="13"/>
       <c r="I57" s="16"/>
       <c r="J57" s="5"/>
       <c r="K57" s="18"/>
-      <c r="L57" s="3"/>
+      <c r="L57" s="3" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" s="4">
         <v>26</v>
@@ -2260,7 +3151,9 @@
       <c r="D58">
         <v>874</v>
       </c>
-      <c r="E58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>323</v>
+      </c>
       <c r="H58" s="13"/>
       <c r="I58" s="16"/>
       <c r="J58" s="5"/>
@@ -2270,7 +3163,7 @@
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="4">
         <v>26</v>
@@ -2278,7 +3171,9 @@
       <c r="D59">
         <v>875</v>
       </c>
-      <c r="E59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>324</v>
+      </c>
       <c r="H59" s="13"/>
       <c r="I59" s="16"/>
       <c r="J59" s="5"/>
@@ -2288,7 +3183,7 @@
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" s="4">
         <v>26</v>
@@ -2296,7 +3191,9 @@
       <c r="D60">
         <v>876</v>
       </c>
-      <c r="E60" s="5"/>
+      <c r="E60" s="5" t="s">
+        <v>325</v>
+      </c>
       <c r="H60" s="13"/>
       <c r="I60" s="16"/>
       <c r="J60" s="5"/>
@@ -2306,7 +3203,7 @@
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="4">
         <v>26</v>
@@ -2314,7 +3211,9 @@
       <c r="D61">
         <v>877</v>
       </c>
-      <c r="E61" s="5"/>
+      <c r="E61" s="5" t="s">
+        <v>326</v>
+      </c>
       <c r="H61" s="13"/>
       <c r="I61" s="16"/>
       <c r="J61" s="5"/>
@@ -2324,7 +3223,7 @@
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" s="4">
         <v>26</v>
@@ -2332,7 +3231,9 @@
       <c r="D62">
         <v>878</v>
       </c>
-      <c r="E62" s="5"/>
+      <c r="E62" s="5" t="s">
+        <v>327</v>
+      </c>
       <c r="H62" s="13"/>
       <c r="I62" s="16"/>
       <c r="J62" s="5"/>
@@ -2342,7 +3243,7 @@
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63" s="4">
         <v>26</v>
@@ -2350,7 +3251,9 @@
       <c r="D63">
         <v>879</v>
       </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>328</v>
+      </c>
       <c r="H63" s="13"/>
       <c r="I63" s="16"/>
       <c r="J63" s="5"/>
@@ -2360,7 +3263,7 @@
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C64" s="4">
         <v>26</v>
@@ -2368,7 +3271,9 @@
       <c r="D64">
         <v>880</v>
       </c>
-      <c r="E64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>329</v>
+      </c>
       <c r="H64" s="13"/>
       <c r="I64" s="16"/>
       <c r="J64" s="5"/>
@@ -2378,7 +3283,7 @@
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65" s="4">
         <v>26</v>
@@ -2386,7 +3291,9 @@
       <c r="D65">
         <v>881</v>
       </c>
-      <c r="E65" s="5"/>
+      <c r="E65" s="5" t="s">
+        <v>330</v>
+      </c>
       <c r="H65" s="13"/>
       <c r="I65" s="16"/>
       <c r="J65" s="5"/>
@@ -2396,7 +3303,7 @@
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" s="4">
         <v>26</v>
@@ -2404,7 +3311,9 @@
       <c r="D66">
         <v>882</v>
       </c>
-      <c r="E66" s="5"/>
+      <c r="E66" s="5" t="s">
+        <v>331</v>
+      </c>
       <c r="H66" s="13"/>
       <c r="I66" s="16"/>
       <c r="J66" s="5"/>
@@ -2414,7 +3323,7 @@
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67" s="4">
         <v>26</v>
@@ -2422,7 +3331,9 @@
       <c r="D67">
         <v>883</v>
       </c>
-      <c r="E67" s="5"/>
+      <c r="E67" s="5" t="s">
+        <v>332</v>
+      </c>
       <c r="H67" s="13"/>
       <c r="I67" s="16"/>
       <c r="J67" s="5"/>
@@ -2432,7 +3343,7 @@
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="4">
         <v>26</v>
@@ -2440,7 +3351,9 @@
       <c r="D68">
         <v>884</v>
       </c>
-      <c r="E68" s="5"/>
+      <c r="E68" s="5" t="s">
+        <v>333</v>
+      </c>
       <c r="H68" s="13"/>
       <c r="I68" s="16"/>
       <c r="J68" s="5"/>
@@ -2450,7 +3363,7 @@
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C69" s="4">
         <v>26</v>
@@ -2458,7 +3371,9 @@
       <c r="D69">
         <v>885</v>
       </c>
-      <c r="E69" s="5"/>
+      <c r="E69" s="5" t="s">
+        <v>334</v>
+      </c>
       <c r="F69" s="3"/>
       <c r="G69" s="12"/>
       <c r="H69" s="13"/>
@@ -2470,7 +3385,7 @@
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C70" s="4">
         <v>26</v>
@@ -2478,7 +3393,9 @@
       <c r="D70">
         <v>886</v>
       </c>
-      <c r="E70" s="5"/>
+      <c r="E70" s="5" t="s">
+        <v>335</v>
+      </c>
       <c r="F70" s="3"/>
       <c r="G70" s="12"/>
       <c r="H70" s="13"/>
@@ -2490,7 +3407,7 @@
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" s="4">
         <v>26</v>
@@ -2498,7 +3415,9 @@
       <c r="D71">
         <v>887</v>
       </c>
-      <c r="E71" s="5"/>
+      <c r="E71" s="5" t="s">
+        <v>336</v>
+      </c>
       <c r="F71" s="3"/>
       <c r="G71" s="12"/>
       <c r="H71" s="13"/>
@@ -2510,7 +3429,7 @@
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C72" s="4">
         <v>26</v>
@@ -2518,7 +3437,9 @@
       <c r="D72">
         <v>888</v>
       </c>
-      <c r="E72" s="5"/>
+      <c r="E72" s="5" t="s">
+        <v>337</v>
+      </c>
       <c r="F72" s="3"/>
       <c r="G72" s="12"/>
       <c r="H72" s="13"/>
@@ -2530,7 +3451,7 @@
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C73" s="4">
         <v>26</v>
@@ -2538,7 +3459,9 @@
       <c r="D73">
         <v>889</v>
       </c>
-      <c r="E73" s="5"/>
+      <c r="E73" s="5" t="s">
+        <v>338</v>
+      </c>
       <c r="F73" s="3"/>
       <c r="G73" s="12"/>
       <c r="H73" s="13"/>
@@ -2550,7 +3473,7 @@
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C74" s="4">
         <v>26</v>
@@ -2558,7 +3481,9 @@
       <c r="D74">
         <v>890</v>
       </c>
-      <c r="E74" s="5"/>
+      <c r="E74" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="F74" s="3"/>
       <c r="G74" s="12"/>
       <c r="H74" s="13"/>
@@ -2570,7 +3495,7 @@
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C75" s="4">
         <v>26</v>
@@ -2578,7 +3503,9 @@
       <c r="D75">
         <v>891</v>
       </c>
-      <c r="E75" s="5"/>
+      <c r="E75" s="5" t="s">
+        <v>340</v>
+      </c>
       <c r="F75" s="3"/>
       <c r="G75" s="12"/>
       <c r="H75" s="13"/>
@@ -2590,7 +3517,7 @@
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76" s="4">
         <v>26</v>
@@ -2598,7 +3525,9 @@
       <c r="D76">
         <v>892</v>
       </c>
-      <c r="E76" s="5"/>
+      <c r="E76" s="5" t="s">
+        <v>341</v>
+      </c>
       <c r="F76" s="3"/>
       <c r="G76" s="12"/>
       <c r="H76" s="13"/>
@@ -2610,7 +3539,7 @@
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77" s="4">
         <v>26</v>
@@ -2618,7 +3547,9 @@
       <c r="D77">
         <v>893</v>
       </c>
-      <c r="E77" s="5"/>
+      <c r="E77" s="5" t="s">
+        <v>342</v>
+      </c>
       <c r="F77" s="3"/>
       <c r="G77" s="12"/>
       <c r="H77" s="13"/>
@@ -2630,7 +3561,7 @@
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" s="4">
         <v>26</v>
@@ -2638,7 +3569,9 @@
       <c r="D78">
         <v>894</v>
       </c>
-      <c r="E78" s="5"/>
+      <c r="E78" s="5" t="s">
+        <v>343</v>
+      </c>
       <c r="F78" s="3"/>
       <c r="G78" s="12"/>
       <c r="H78" s="13"/>
@@ -2650,7 +3583,7 @@
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C79" s="4">
         <v>26</v>
@@ -2658,7 +3591,9 @@
       <c r="D79">
         <v>895</v>
       </c>
-      <c r="E79" s="5"/>
+      <c r="E79" s="5" t="s">
+        <v>344</v>
+      </c>
       <c r="F79" s="3"/>
       <c r="G79" s="12"/>
       <c r="H79" s="13"/>
@@ -2670,7 +3605,7 @@
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C80" s="4">
         <v>26</v>
@@ -2678,7 +3613,9 @@
       <c r="D80">
         <v>896</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E80" s="5" t="s">
+        <v>345</v>
+      </c>
       <c r="F80" s="3"/>
       <c r="G80" s="12"/>
       <c r="H80" s="13"/>
@@ -2690,7 +3627,7 @@
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C81" s="4">
         <v>26</v>
@@ -2698,7 +3635,9 @@
       <c r="D81">
         <v>897</v>
       </c>
-      <c r="E81" s="5"/>
+      <c r="E81" s="5" t="s">
+        <v>346</v>
+      </c>
       <c r="F81" s="3"/>
       <c r="G81" s="12"/>
       <c r="H81" s="13"/>
@@ -2710,7 +3649,7 @@
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82" s="4">
         <v>26</v>
@@ -2718,7 +3657,9 @@
       <c r="D82">
         <v>898</v>
       </c>
-      <c r="E82" s="5"/>
+      <c r="E82" s="5" t="s">
+        <v>347</v>
+      </c>
       <c r="F82" s="3"/>
       <c r="G82" s="12"/>
       <c r="H82" s="13"/>
@@ -2730,7 +3671,7 @@
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="4">
         <v>26</v>
@@ -2738,7 +3679,9 @@
       <c r="D83">
         <v>899</v>
       </c>
-      <c r="E83" s="5"/>
+      <c r="E83" s="5" t="s">
+        <v>348</v>
+      </c>
       <c r="F83" s="3"/>
       <c r="G83" s="12"/>
       <c r="H83" s="13"/>
@@ -2750,7 +3693,7 @@
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C84" s="4">
         <v>26</v>
@@ -2758,7 +3701,9 @@
       <c r="D84">
         <v>900</v>
       </c>
-      <c r="E84" s="5"/>
+      <c r="E84" s="5" t="s">
+        <v>349</v>
+      </c>
       <c r="F84" s="3"/>
       <c r="G84" s="12"/>
       <c r="H84" s="13"/>
@@ -2770,7 +3715,7 @@
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C85" s="4">
         <v>26</v>
@@ -2778,7 +3723,9 @@
       <c r="D85">
         <v>901</v>
       </c>
-      <c r="E85" s="5"/>
+      <c r="E85" s="5" t="s">
+        <v>350</v>
+      </c>
       <c r="F85" s="3"/>
       <c r="G85" s="12"/>
       <c r="H85" s="13"/>
@@ -2790,7 +3737,7 @@
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C86" s="4">
         <v>26</v>
@@ -2798,7 +3745,9 @@
       <c r="D86">
         <v>902</v>
       </c>
-      <c r="E86" s="5"/>
+      <c r="E86" s="5" t="s">
+        <v>351</v>
+      </c>
       <c r="F86" s="3"/>
       <c r="G86" s="12"/>
       <c r="H86" s="13"/>
@@ -2810,7 +3759,7 @@
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C87" s="4">
         <v>26</v>
@@ -2818,7 +3767,9 @@
       <c r="D87">
         <v>903</v>
       </c>
-      <c r="E87" s="5"/>
+      <c r="E87" s="5" t="s">
+        <v>352</v>
+      </c>
       <c r="F87" s="3"/>
       <c r="G87" s="12"/>
       <c r="H87" s="13"/>
@@ -2830,7 +3781,7 @@
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C88" s="4">
         <v>26</v>
@@ -2838,7 +3789,9 @@
       <c r="D88">
         <v>904</v>
       </c>
-      <c r="E88" s="5"/>
+      <c r="E88" s="5" t="s">
+        <v>353</v>
+      </c>
       <c r="F88" s="3"/>
       <c r="G88" s="12"/>
       <c r="H88" s="13"/>
@@ -2850,7 +3803,7 @@
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C89" s="4">
         <v>26</v>
@@ -2858,7 +3811,9 @@
       <c r="D89">
         <v>905</v>
       </c>
-      <c r="E89" s="5"/>
+      <c r="E89" s="5" t="s">
+        <v>354</v>
+      </c>
       <c r="F89" s="3"/>
       <c r="G89" s="12"/>
       <c r="H89" s="13"/>
@@ -2870,7 +3825,7 @@
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C90" s="4">
         <v>26</v>
@@ -2878,7 +3833,9 @@
       <c r="D90">
         <v>906</v>
       </c>
-      <c r="E90" s="5"/>
+      <c r="E90" s="5" t="s">
+        <v>355</v>
+      </c>
       <c r="F90" s="3"/>
       <c r="G90" s="12"/>
       <c r="H90" s="13"/>
@@ -2890,7 +3847,7 @@
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C91" s="4">
         <v>26</v>
@@ -2898,7 +3855,9 @@
       <c r="D91">
         <v>907</v>
       </c>
-      <c r="E91" s="5"/>
+      <c r="E91" s="5" t="s">
+        <v>356</v>
+      </c>
       <c r="F91" s="6"/>
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
@@ -2910,7 +3869,7 @@
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C92" s="4">
         <v>26</v>
@@ -2918,7 +3877,9 @@
       <c r="D92">
         <v>908</v>
       </c>
-      <c r="E92" s="5"/>
+      <c r="E92" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="F92" s="6"/>
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
@@ -2930,7 +3891,7 @@
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C93" s="4">
         <v>26</v>
@@ -2938,7 +3899,9 @@
       <c r="D93">
         <v>909</v>
       </c>
-      <c r="E93" s="5"/>
+      <c r="E93" s="5" t="s">
+        <v>358</v>
+      </c>
       <c r="F93" s="3"/>
       <c r="G93" s="12"/>
       <c r="H93" s="13"/>
@@ -2950,7 +3913,7 @@
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C94" s="4">
         <v>26</v>
@@ -2958,7 +3921,9 @@
       <c r="D94">
         <v>910</v>
       </c>
-      <c r="E94" s="5"/>
+      <c r="E94" s="5" t="s">
+        <v>359</v>
+      </c>
       <c r="F94" s="3"/>
       <c r="G94" s="12"/>
       <c r="H94" s="13"/>
@@ -2970,7 +3935,7 @@
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C95" s="4">
         <v>26</v>
@@ -2978,7 +3943,9 @@
       <c r="D95">
         <v>911</v>
       </c>
-      <c r="E95" s="5"/>
+      <c r="E95" s="5" t="s">
+        <v>360</v>
+      </c>
       <c r="F95" s="3"/>
       <c r="G95" s="12"/>
       <c r="H95" s="13"/>
@@ -2990,7 +3957,7 @@
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C96" s="4">
         <v>26</v>
@@ -2998,7 +3965,9 @@
       <c r="D96">
         <v>912</v>
       </c>
-      <c r="E96" s="5"/>
+      <c r="E96" s="5" t="s">
+        <v>361</v>
+      </c>
       <c r="F96" s="3"/>
       <c r="G96" s="12"/>
       <c r="H96" s="13"/>
@@ -3010,7 +3979,7 @@
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C97" s="4">
         <v>26</v>
@@ -3018,7 +3987,9 @@
       <c r="D97">
         <v>913</v>
       </c>
-      <c r="E97" s="5"/>
+      <c r="E97" s="5" t="s">
+        <v>362</v>
+      </c>
       <c r="F97" s="3"/>
       <c r="G97" s="12"/>
       <c r="H97" s="13"/>
@@ -3030,7 +4001,7 @@
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C98" s="4">
         <v>26</v>
@@ -3038,7 +4009,9 @@
       <c r="D98">
         <v>914</v>
       </c>
-      <c r="E98" s="5"/>
+      <c r="E98" s="5" t="s">
+        <v>363</v>
+      </c>
       <c r="F98" s="3"/>
       <c r="G98" s="12"/>
       <c r="H98" s="13"/>
@@ -3050,7 +4023,7 @@
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C99" s="4">
         <v>26</v>
@@ -3058,7 +4031,9 @@
       <c r="D99">
         <v>915</v>
       </c>
-      <c r="E99" s="5"/>
+      <c r="E99" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="F99" s="3"/>
       <c r="G99" s="12"/>
       <c r="H99" s="13"/>
@@ -3070,7 +4045,7 @@
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C100" s="4">
         <v>26</v>
@@ -3078,7 +4053,9 @@
       <c r="D100">
         <v>916</v>
       </c>
-      <c r="E100" s="5"/>
+      <c r="E100" s="5" t="s">
+        <v>365</v>
+      </c>
       <c r="F100" s="3"/>
       <c r="G100" s="12"/>
       <c r="H100" s="13"/>
@@ -3090,7 +4067,7 @@
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C101" s="4">
         <v>26</v>
@@ -3098,7 +4075,9 @@
       <c r="D101">
         <v>917</v>
       </c>
-      <c r="E101" s="5"/>
+      <c r="E101" s="5" t="s">
+        <v>366</v>
+      </c>
       <c r="F101" s="3"/>
       <c r="G101" s="12"/>
       <c r="H101" s="13"/>
@@ -3110,7 +4089,7 @@
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C102" s="4">
         <v>26</v>
@@ -3118,7 +4097,9 @@
       <c r="D102">
         <v>918</v>
       </c>
-      <c r="E102" s="5"/>
+      <c r="E102" s="5" t="s">
+        <v>367</v>
+      </c>
       <c r="F102" s="3"/>
       <c r="G102" s="12"/>
       <c r="H102" s="13"/>
@@ -3130,7 +4111,7 @@
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C103" s="4">
         <v>26</v>
@@ -3138,7 +4119,9 @@
       <c r="D103">
         <v>919</v>
       </c>
-      <c r="E103" s="5"/>
+      <c r="E103" s="5" t="s">
+        <v>368</v>
+      </c>
       <c r="F103" s="3"/>
       <c r="G103" s="12"/>
       <c r="H103" s="13"/>
@@ -3150,7 +4133,7 @@
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C104" s="4">
         <v>26</v>
@@ -3158,7 +4141,9 @@
       <c r="D104">
         <v>920</v>
       </c>
-      <c r="E104" s="5"/>
+      <c r="E104" s="5" t="s">
+        <v>369</v>
+      </c>
       <c r="F104" s="3"/>
       <c r="G104" s="12"/>
       <c r="H104" s="13"/>
@@ -3170,7 +4155,7 @@
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C105" s="4">
         <v>26</v>
@@ -3178,7 +4163,9 @@
       <c r="D105">
         <v>921</v>
       </c>
-      <c r="E105" s="5"/>
+      <c r="E105" s="5" t="s">
+        <v>370</v>
+      </c>
       <c r="F105" s="3"/>
       <c r="G105" s="12"/>
       <c r="H105" s="13"/>
@@ -3190,7 +4177,7 @@
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C106" s="4">
         <v>26</v>
@@ -3198,7 +4185,9 @@
       <c r="D106">
         <v>922</v>
       </c>
-      <c r="E106" s="5"/>
+      <c r="E106" s="5" t="s">
+        <v>371</v>
+      </c>
       <c r="F106" s="3"/>
       <c r="G106" s="12"/>
       <c r="H106" s="13"/>
@@ -3210,7 +4199,7 @@
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C107" s="4">
         <v>26</v>
@@ -3218,7 +4207,9 @@
       <c r="D107">
         <v>923</v>
       </c>
-      <c r="E107" s="5"/>
+      <c r="E107" s="5" t="s">
+        <v>372</v>
+      </c>
       <c r="F107" s="3"/>
       <c r="G107" s="12"/>
       <c r="H107" s="13"/>
@@ -3230,7 +4221,7 @@
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C108" s="4">
         <v>26</v>
@@ -3238,7 +4229,9 @@
       <c r="D108">
         <v>924</v>
       </c>
-      <c r="E108" s="5"/>
+      <c r="E108" s="5" t="s">
+        <v>373</v>
+      </c>
       <c r="F108" s="3"/>
       <c r="G108" s="12"/>
       <c r="H108" s="13"/>
@@ -3250,7 +4243,7 @@
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C109" s="4">
         <v>26</v>
@@ -3258,7 +4251,9 @@
       <c r="D109">
         <v>925</v>
       </c>
-      <c r="E109" s="5"/>
+      <c r="E109" s="5" t="s">
+        <v>374</v>
+      </c>
       <c r="F109" s="3"/>
       <c r="G109" s="12"/>
       <c r="H109" s="13"/>
@@ -3270,7 +4265,7 @@
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C110" s="4">
         <v>26</v>
@@ -3278,7 +4273,9 @@
       <c r="D110">
         <v>926</v>
       </c>
-      <c r="E110" s="5"/>
+      <c r="E110" s="5" t="s">
+        <v>375</v>
+      </c>
       <c r="F110" s="3"/>
       <c r="G110" s="12"/>
       <c r="H110" s="13"/>
@@ -3290,7 +4287,7 @@
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C111" s="4">
         <v>26</v>
@@ -3298,7 +4295,9 @@
       <c r="D111">
         <v>927</v>
       </c>
-      <c r="E111" s="5"/>
+      <c r="E111" s="5" t="s">
+        <v>376</v>
+      </c>
       <c r="F111" s="3"/>
       <c r="G111" s="12"/>
       <c r="H111" s="13"/>
@@ -3310,7 +4309,7 @@
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C112" s="4">
         <v>26</v>
@@ -3318,7 +4317,9 @@
       <c r="D112">
         <v>928</v>
       </c>
-      <c r="E112" s="5"/>
+      <c r="E112" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="F112" s="3"/>
       <c r="G112" s="12"/>
       <c r="H112" s="13"/>
@@ -3330,7 +4331,7 @@
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C113" s="4">
         <v>26</v>
@@ -3338,7 +4339,9 @@
       <c r="D113">
         <v>929</v>
       </c>
-      <c r="E113" s="5"/>
+      <c r="E113" s="5" t="s">
+        <v>378</v>
+      </c>
       <c r="F113" s="3"/>
       <c r="G113" s="12"/>
       <c r="H113" s="13"/>
@@ -3350,7 +4353,7 @@
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C114" s="4">
         <v>26</v>
@@ -3358,7 +4361,9 @@
       <c r="D114">
         <v>930</v>
       </c>
-      <c r="E114" s="5"/>
+      <c r="E114" s="5" t="s">
+        <v>379</v>
+      </c>
       <c r="F114" s="3"/>
       <c r="G114" s="12"/>
       <c r="H114" s="13"/>
@@ -3370,7 +4375,7 @@
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C115" s="4">
         <v>26</v>
@@ -3378,7 +4383,9 @@
       <c r="D115">
         <v>931</v>
       </c>
-      <c r="E115" s="5"/>
+      <c r="E115" s="5" t="s">
+        <v>380</v>
+      </c>
       <c r="F115" s="3"/>
       <c r="G115" s="12"/>
       <c r="H115" s="13"/>
@@ -3390,7 +4397,7 @@
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C116" s="4">
         <v>26</v>
@@ -3398,7 +4405,9 @@
       <c r="D116">
         <v>932</v>
       </c>
-      <c r="E116" s="5"/>
+      <c r="E116" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="F116" s="3"/>
       <c r="G116" s="12"/>
       <c r="H116" s="13"/>
@@ -3410,7 +4419,7 @@
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C117" s="4">
         <v>26</v>
@@ -3418,7 +4427,9 @@
       <c r="D117">
         <v>933</v>
       </c>
-      <c r="E117" s="5"/>
+      <c r="E117" s="5" t="s">
+        <v>382</v>
+      </c>
       <c r="F117" s="3"/>
       <c r="G117" s="12"/>
       <c r="H117" s="13"/>
@@ -3430,7 +4441,7 @@
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C118" s="4">
         <v>26</v>
@@ -3438,7 +4449,9 @@
       <c r="D118">
         <v>934</v>
       </c>
-      <c r="E118" s="5"/>
+      <c r="E118" s="5" t="s">
+        <v>383</v>
+      </c>
       <c r="F118" s="3"/>
       <c r="G118" s="12"/>
       <c r="H118" s="13"/>
@@ -3450,7 +4463,7 @@
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C119" s="4">
         <v>26</v>
@@ -3458,7 +4471,9 @@
       <c r="D119">
         <v>935</v>
       </c>
-      <c r="E119" s="5"/>
+      <c r="E119" s="5" t="s">
+        <v>384</v>
+      </c>
       <c r="F119" s="3"/>
       <c r="G119" s="12"/>
       <c r="H119" s="13"/>
@@ -3470,7 +4485,7 @@
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C120" s="4">
         <v>26</v>
@@ -3478,7 +4493,9 @@
       <c r="D120">
         <v>936</v>
       </c>
-      <c r="E120" s="5"/>
+      <c r="E120" s="5" t="s">
+        <v>385</v>
+      </c>
       <c r="F120" s="3"/>
       <c r="G120" s="12"/>
       <c r="H120" s="13"/>
@@ -3490,7 +4507,7 @@
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C121" s="4">
         <v>26</v>
@@ -3498,7 +4515,9 @@
       <c r="D121">
         <v>937</v>
       </c>
-      <c r="E121" s="5"/>
+      <c r="E121" s="5" t="s">
+        <v>386</v>
+      </c>
       <c r="F121" s="3"/>
       <c r="G121" s="12"/>
       <c r="H121" s="13"/>
@@ -3510,7 +4529,7 @@
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C122" s="4">
         <v>26</v>
@@ -3518,7 +4537,9 @@
       <c r="D122">
         <v>938</v>
       </c>
-      <c r="E122" s="5"/>
+      <c r="E122" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="F122" s="3"/>
       <c r="G122" s="12"/>
       <c r="H122" s="13"/>
@@ -3530,7 +4551,7 @@
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C123" s="4">
         <v>26</v>
@@ -3538,7 +4559,9 @@
       <c r="D123">
         <v>939</v>
       </c>
-      <c r="E123" s="5"/>
+      <c r="E123" s="5" t="s">
+        <v>388</v>
+      </c>
       <c r="F123" s="3"/>
       <c r="G123" s="12"/>
       <c r="H123" s="13"/>
@@ -3550,7 +4573,7 @@
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C124" s="4">
         <v>26</v>
@@ -3558,7 +4581,9 @@
       <c r="D124">
         <v>940</v>
       </c>
-      <c r="E124" s="5"/>
+      <c r="E124" s="5" t="s">
+        <v>389</v>
+      </c>
       <c r="F124" s="3"/>
       <c r="G124" s="12"/>
       <c r="H124" s="13"/>
@@ -3570,7 +4595,7 @@
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C125" s="4">
         <v>26</v>
@@ -3578,19 +4603,23 @@
       <c r="D125">
         <v>941</v>
       </c>
-      <c r="E125" s="5"/>
+      <c r="E125" s="5" t="s">
+        <v>390</v>
+      </c>
       <c r="F125" s="3"/>
       <c r="G125" s="12"/>
       <c r="H125" s="13"/>
       <c r="I125" s="16"/>
       <c r="J125" s="5"/>
       <c r="K125" s="18"/>
-      <c r="L125" s="3"/>
+      <c r="L125" s="3" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C126" s="4">
         <v>26</v>
@@ -3598,7 +4627,9 @@
       <c r="D126">
         <v>942</v>
       </c>
-      <c r="E126" s="5"/>
+      <c r="E126" s="5" t="s">
+        <v>391</v>
+      </c>
       <c r="F126" s="3"/>
       <c r="G126" s="12"/>
       <c r="H126" s="13"/>
@@ -3610,7 +4641,7 @@
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C127" s="4">
         <v>26</v>
@@ -3618,7 +4649,9 @@
       <c r="D127">
         <v>943</v>
       </c>
-      <c r="E127" s="5"/>
+      <c r="E127" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="F127" s="3"/>
       <c r="G127" s="12"/>
       <c r="H127" s="13"/>
@@ -3630,7 +4663,7 @@
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C128" s="4">
         <v>26</v>
@@ -3638,7 +4671,9 @@
       <c r="D128">
         <v>944</v>
       </c>
-      <c r="E128" s="5"/>
+      <c r="E128" s="5" t="s">
+        <v>393</v>
+      </c>
       <c r="F128" s="3"/>
       <c r="G128" s="12"/>
       <c r="H128" s="13"/>
@@ -3650,7 +4685,7 @@
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C129" s="4">
         <v>26</v>
@@ -3658,7 +4693,9 @@
       <c r="D129">
         <v>945</v>
       </c>
-      <c r="E129" s="5"/>
+      <c r="E129" s="5" t="s">
+        <v>394</v>
+      </c>
       <c r="F129" s="3"/>
       <c r="G129" s="12"/>
       <c r="H129" s="13"/>
@@ -3670,7 +4707,7 @@
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C130" s="4">
         <v>26</v>
@@ -3678,19 +4715,23 @@
       <c r="D130">
         <v>946</v>
       </c>
-      <c r="E130" s="5"/>
+      <c r="E130" s="5" t="s">
+        <v>395</v>
+      </c>
       <c r="F130" s="3"/>
       <c r="G130" s="12"/>
       <c r="H130" s="13"/>
       <c r="I130" s="16"/>
       <c r="J130" s="5"/>
       <c r="K130" s="18"/>
-      <c r="L130" s="3"/>
+      <c r="L130" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C131" s="4">
         <v>26</v>
@@ -3698,19 +4739,23 @@
       <c r="D131">
         <v>947</v>
       </c>
-      <c r="E131" s="5"/>
+      <c r="E131" s="5" t="s">
+        <v>396</v>
+      </c>
       <c r="F131" s="3"/>
       <c r="G131" s="12"/>
       <c r="H131" s="13"/>
       <c r="I131" s="16"/>
       <c r="J131" s="5"/>
       <c r="K131" s="18"/>
-      <c r="L131" s="3"/>
+      <c r="L131" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C132" s="4">
         <v>26</v>
@@ -3718,19 +4763,23 @@
       <c r="D132">
         <v>948</v>
       </c>
-      <c r="E132" s="5"/>
+      <c r="E132" s="5" t="s">
+        <v>397</v>
+      </c>
       <c r="F132" s="3"/>
       <c r="G132" s="12"/>
       <c r="H132" s="13"/>
       <c r="I132" s="16"/>
       <c r="J132" s="5"/>
       <c r="K132" s="18"/>
-      <c r="L132" s="3"/>
+      <c r="L132" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C133" s="4">
         <v>26</v>
@@ -3738,19 +4787,23 @@
       <c r="D133">
         <v>949</v>
       </c>
-      <c r="E133" s="5"/>
+      <c r="E133" s="5" t="s">
+        <v>398</v>
+      </c>
       <c r="F133" s="3"/>
       <c r="G133" s="12"/>
       <c r="H133" s="13"/>
       <c r="I133" s="16"/>
       <c r="J133" s="5"/>
       <c r="K133" s="18"/>
-      <c r="L133" s="3"/>
+      <c r="L133" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C134" s="4">
         <v>26</v>
@@ -3758,19 +4811,23 @@
       <c r="D134">
         <v>950</v>
       </c>
-      <c r="E134" s="5"/>
+      <c r="E134" s="5" t="s">
+        <v>399</v>
+      </c>
       <c r="F134" s="3"/>
       <c r="G134" s="12"/>
       <c r="H134" s="13"/>
       <c r="I134" s="16"/>
       <c r="J134" s="5"/>
       <c r="K134" s="18"/>
-      <c r="L134" s="3"/>
+      <c r="L134" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C135" s="4">
         <v>26</v>
@@ -3778,19 +4835,23 @@
       <c r="D135">
         <v>951</v>
       </c>
-      <c r="E135" s="5"/>
+      <c r="E135" s="5" t="s">
+        <v>400</v>
+      </c>
       <c r="F135" s="3"/>
       <c r="G135" s="12"/>
       <c r="H135" s="13"/>
       <c r="I135" s="16"/>
       <c r="J135" s="5"/>
       <c r="K135" s="18"/>
-      <c r="L135" s="3"/>
+      <c r="L135" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C136" s="4">
         <v>26</v>
@@ -3798,19 +4859,23 @@
       <c r="D136">
         <v>952</v>
       </c>
-      <c r="E136" s="5"/>
+      <c r="E136" s="5" t="s">
+        <v>401</v>
+      </c>
       <c r="F136" s="3"/>
       <c r="G136" s="12"/>
       <c r="H136" s="13"/>
       <c r="I136" s="16"/>
       <c r="J136" s="5"/>
       <c r="K136" s="18"/>
-      <c r="L136" s="3"/>
+      <c r="L136" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C137" s="4">
         <v>26</v>
@@ -3818,19 +4883,23 @@
       <c r="D137">
         <v>953</v>
       </c>
-      <c r="E137" s="5"/>
+      <c r="E137" s="5" t="s">
+        <v>402</v>
+      </c>
       <c r="F137" s="3"/>
       <c r="G137" s="12"/>
       <c r="H137" s="13"/>
       <c r="I137" s="16"/>
       <c r="J137" s="5"/>
       <c r="K137" s="18"/>
-      <c r="L137" s="3"/>
+      <c r="L137" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C138" s="4">
         <v>26</v>
@@ -3838,19 +4907,23 @@
       <c r="D138">
         <v>954</v>
       </c>
-      <c r="E138" s="5"/>
+      <c r="E138" s="5" t="s">
+        <v>403</v>
+      </c>
       <c r="F138" s="3"/>
       <c r="G138" s="12"/>
       <c r="H138" s="13"/>
       <c r="I138" s="16"/>
       <c r="J138" s="5"/>
       <c r="K138" s="18"/>
-      <c r="L138" s="3"/>
+      <c r="L138" s="3" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C139" s="4">
         <v>26</v>
@@ -3858,19 +4931,23 @@
       <c r="D139">
         <v>955</v>
       </c>
-      <c r="E139" s="5"/>
+      <c r="E139" s="5" t="s">
+        <v>404</v>
+      </c>
       <c r="F139" s="3"/>
       <c r="G139" s="12"/>
       <c r="H139" s="13"/>
       <c r="I139" s="16"/>
       <c r="J139" s="5"/>
       <c r="K139" s="18"/>
-      <c r="L139" s="3"/>
+      <c r="L139" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C140" s="4">
         <v>26</v>
@@ -3878,19 +4955,23 @@
       <c r="D140">
         <v>956</v>
       </c>
-      <c r="E140" s="5"/>
+      <c r="E140" s="5" t="s">
+        <v>405</v>
+      </c>
       <c r="F140" s="3"/>
       <c r="G140" s="12"/>
       <c r="H140" s="13"/>
       <c r="I140" s="16"/>
       <c r="J140" s="5"/>
       <c r="K140" s="18"/>
-      <c r="L140" s="3"/>
+      <c r="L140" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C141" s="4">
         <v>26</v>
@@ -3898,19 +4979,23 @@
       <c r="D141">
         <v>957</v>
       </c>
-      <c r="E141" s="5"/>
+      <c r="E141" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="F141" s="6"/>
       <c r="G141" s="13"/>
       <c r="H141" s="13"/>
       <c r="I141" s="16"/>
       <c r="J141" s="5"/>
       <c r="K141" s="18"/>
-      <c r="L141" s="3"/>
+      <c r="L141" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C142" s="4">
         <v>26</v>
@@ -3918,19 +5003,23 @@
       <c r="D142">
         <v>958</v>
       </c>
-      <c r="E142" s="5"/>
+      <c r="E142" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="F142" s="6"/>
       <c r="G142" s="13"/>
       <c r="H142" s="13"/>
       <c r="I142" s="16"/>
       <c r="J142" s="5"/>
       <c r="K142" s="18"/>
-      <c r="L142" s="3"/>
+      <c r="L142" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C143" s="4">
         <v>26</v>
@@ -3938,19 +5027,23 @@
       <c r="D143">
         <v>959</v>
       </c>
-      <c r="E143" s="5"/>
+      <c r="E143" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="F143" s="6"/>
       <c r="G143" s="13"/>
       <c r="H143" s="13"/>
       <c r="I143" s="16"/>
       <c r="J143" s="5"/>
       <c r="K143" s="18"/>
-      <c r="L143" s="3"/>
+      <c r="L143" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C144" s="4">
         <v>26</v>
@@ -3958,7 +5051,9 @@
       <c r="D144">
         <v>960</v>
       </c>
-      <c r="E144" s="5"/>
+      <c r="E144" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="F144" s="6"/>
       <c r="G144" s="13"/>
       <c r="H144" s="13"/>
@@ -3970,7 +5065,7 @@
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C145" s="4">
         <v>26</v>
@@ -3978,7 +5073,9 @@
       <c r="D145">
         <v>961</v>
       </c>
-      <c r="E145" s="5"/>
+      <c r="E145" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="F145" s="3"/>
       <c r="G145" s="12"/>
       <c r="H145" s="13"/>
@@ -3990,7 +5087,7 @@
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C146" s="4">
         <v>26</v>
@@ -3998,7 +5095,9 @@
       <c r="D146">
         <v>962</v>
       </c>
-      <c r="E146" s="5"/>
+      <c r="E146" s="5" t="s">
+        <v>411</v>
+      </c>
       <c r="F146" s="3"/>
       <c r="G146" s="12"/>
       <c r="H146" s="13"/>
@@ -4010,7 +5109,7 @@
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C147" s="4">
         <v>26</v>
@@ -4018,7 +5117,9 @@
       <c r="D147">
         <v>963</v>
       </c>
-      <c r="E147" s="5"/>
+      <c r="E147" s="5" t="s">
+        <v>412</v>
+      </c>
       <c r="F147" s="3"/>
       <c r="G147" s="12"/>
       <c r="H147" s="13"/>
@@ -4030,7 +5131,7 @@
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C148" s="4">
         <v>26</v>
@@ -4038,7 +5139,9 @@
       <c r="D148">
         <v>964</v>
       </c>
-      <c r="E148" s="5"/>
+      <c r="E148" s="5" t="s">
+        <v>413</v>
+      </c>
       <c r="F148" s="3"/>
       <c r="G148" s="12"/>
       <c r="H148" s="13"/>
@@ -4050,7 +5153,7 @@
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C149" s="4">
         <v>26</v>
@@ -4058,7 +5161,9 @@
       <c r="D149">
         <v>965</v>
       </c>
-      <c r="E149" s="5"/>
+      <c r="E149" s="5" t="s">
+        <v>414</v>
+      </c>
       <c r="F149" s="3"/>
       <c r="G149" s="12"/>
       <c r="H149" s="13"/>
@@ -4070,7 +5175,7 @@
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C150" s="4">
         <v>26</v>
@@ -4078,7 +5183,9 @@
       <c r="D150">
         <v>966</v>
       </c>
-      <c r="E150" s="5"/>
+      <c r="E150" s="5" t="s">
+        <v>415</v>
+      </c>
       <c r="F150" s="3"/>
       <c r="G150" s="12"/>
       <c r="H150" s="13"/>
@@ -4090,7 +5197,7 @@
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C151" s="4">
         <v>26</v>
@@ -4098,7 +5205,9 @@
       <c r="D151">
         <v>967</v>
       </c>
-      <c r="E151" s="5"/>
+      <c r="E151" s="5" t="s">
+        <v>416</v>
+      </c>
       <c r="F151" s="3"/>
       <c r="G151" s="12"/>
       <c r="H151" s="13"/>
@@ -4110,7 +5219,7 @@
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C152" s="4">
         <v>26</v>
@@ -4118,7 +5227,9 @@
       <c r="D152">
         <v>968</v>
       </c>
-      <c r="E152" s="5"/>
+      <c r="E152" s="5" t="s">
+        <v>417</v>
+      </c>
       <c r="F152" s="3"/>
       <c r="G152" s="12"/>
       <c r="H152" s="13"/>
@@ -4130,7 +5241,7 @@
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C153" s="4">
         <v>26</v>
@@ -4138,7 +5249,9 @@
       <c r="D153">
         <v>969</v>
       </c>
-      <c r="E153" s="5"/>
+      <c r="E153" s="5" t="s">
+        <v>418</v>
+      </c>
       <c r="F153" s="3"/>
       <c r="G153" s="12"/>
       <c r="H153" s="13"/>
@@ -4150,7 +5263,7 @@
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C154" s="4">
         <v>26</v>
@@ -4158,7 +5271,9 @@
       <c r="D154">
         <v>970</v>
       </c>
-      <c r="E154" s="5"/>
+      <c r="E154" s="5" t="s">
+        <v>419</v>
+      </c>
       <c r="F154" s="3"/>
       <c r="G154" s="12"/>
       <c r="H154" s="13"/>
@@ -4170,7 +5285,7 @@
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C155" s="4">
         <v>26</v>
@@ -4178,7 +5293,9 @@
       <c r="D155">
         <v>971</v>
       </c>
-      <c r="E155" s="5"/>
+      <c r="E155" s="5" t="s">
+        <v>420</v>
+      </c>
       <c r="F155" s="3"/>
       <c r="G155" s="12"/>
       <c r="H155" s="13"/>
@@ -4190,7 +5307,7 @@
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C156" s="4">
         <v>26</v>
@@ -4198,7 +5315,9 @@
       <c r="D156">
         <v>972</v>
       </c>
-      <c r="E156" s="5"/>
+      <c r="E156" s="5" t="s">
+        <v>421</v>
+      </c>
       <c r="F156" s="3"/>
       <c r="G156" s="12"/>
       <c r="H156" s="13"/>
@@ -4210,7 +5329,7 @@
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C157" s="4">
         <v>26</v>
@@ -4218,7 +5337,9 @@
       <c r="D157">
         <v>973</v>
       </c>
-      <c r="E157" s="5"/>
+      <c r="E157" s="5" t="s">
+        <v>422</v>
+      </c>
       <c r="F157" s="3"/>
       <c r="G157" s="12"/>
       <c r="H157" s="13"/>
@@ -4230,7 +5351,7 @@
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C158" s="4">
         <v>26</v>
@@ -4238,7 +5359,9 @@
       <c r="D158">
         <v>974</v>
       </c>
-      <c r="E158" s="5"/>
+      <c r="E158" s="5" t="s">
+        <v>423</v>
+      </c>
       <c r="F158" s="3"/>
       <c r="G158" s="12"/>
       <c r="H158" s="13"/>
@@ -4250,7 +5373,7 @@
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C159" s="4">
         <v>26</v>
@@ -4258,7 +5381,9 @@
       <c r="D159">
         <v>975</v>
       </c>
-      <c r="E159" s="5"/>
+      <c r="E159" s="5" t="s">
+        <v>424</v>
+      </c>
       <c r="F159" s="3"/>
       <c r="G159" s="12"/>
       <c r="H159" s="13"/>
@@ -4270,7 +5395,7 @@
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C160" s="4">
         <v>26</v>
@@ -4278,7 +5403,9 @@
       <c r="D160">
         <v>976</v>
       </c>
-      <c r="E160" s="5"/>
+      <c r="E160" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="F160" s="3"/>
       <c r="G160" s="12"/>
       <c r="H160" s="13"/>
@@ -4290,7 +5417,7 @@
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C161" s="4">
         <v>26</v>
@@ -4298,7 +5425,9 @@
       <c r="D161">
         <v>977</v>
       </c>
-      <c r="E161" s="5"/>
+      <c r="E161" s="5" t="s">
+        <v>426</v>
+      </c>
       <c r="F161" s="3"/>
       <c r="G161" s="12"/>
       <c r="H161" s="13"/>
@@ -4310,7 +5439,7 @@
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C162" s="4">
         <v>26</v>
@@ -4318,7 +5447,9 @@
       <c r="D162">
         <v>978</v>
       </c>
-      <c r="E162" s="5"/>
+      <c r="E162" s="5" t="s">
+        <v>427</v>
+      </c>
       <c r="F162" s="3"/>
       <c r="G162" s="12"/>
       <c r="H162" s="13"/>
@@ -4330,7 +5461,7 @@
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C163" s="4">
         <v>26</v>
@@ -4338,7 +5469,9 @@
       <c r="D163">
         <v>979</v>
       </c>
-      <c r="E163" s="5"/>
+      <c r="E163" s="5" t="s">
+        <v>428</v>
+      </c>
       <c r="F163" s="3"/>
       <c r="G163" s="12"/>
       <c r="H163" s="13"/>
@@ -4350,7 +5483,7 @@
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C164" s="4">
         <v>26</v>
@@ -4358,7 +5491,9 @@
       <c r="D164">
         <v>980</v>
       </c>
-      <c r="E164" s="5"/>
+      <c r="E164" s="5" t="s">
+        <v>429</v>
+      </c>
       <c r="F164" s="3"/>
       <c r="G164" s="12"/>
       <c r="H164" s="13"/>
@@ -4370,7 +5505,7 @@
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C165" s="4">
         <v>26</v>
@@ -4378,19 +5513,23 @@
       <c r="D165">
         <v>981</v>
       </c>
-      <c r="E165" s="5"/>
+      <c r="E165" s="5" t="s">
+        <v>430</v>
+      </c>
       <c r="F165" s="3"/>
       <c r="G165" s="12"/>
       <c r="H165" s="13"/>
       <c r="I165" s="16"/>
       <c r="J165" s="5"/>
       <c r="K165" s="18"/>
-      <c r="L165" s="3"/>
+      <c r="L165" s="3" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C166" s="4">
         <v>26</v>
@@ -4398,7 +5537,9 @@
       <c r="D166">
         <v>982</v>
       </c>
-      <c r="E166" s="5"/>
+      <c r="E166" s="5" t="s">
+        <v>431</v>
+      </c>
       <c r="F166" s="3"/>
       <c r="G166" s="12"/>
       <c r="H166" s="13"/>
@@ -4410,7 +5551,7 @@
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C167" s="4">
         <v>26</v>
@@ -4418,7 +5559,9 @@
       <c r="D167">
         <v>983</v>
       </c>
-      <c r="E167" s="5"/>
+      <c r="E167" s="5" t="s">
+        <v>432</v>
+      </c>
       <c r="F167" s="3"/>
       <c r="G167" s="12"/>
       <c r="H167" s="13"/>
@@ -4430,7 +5573,7 @@
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C168" s="4">
         <v>26</v>
@@ -4438,19 +5581,23 @@
       <c r="D168">
         <v>984</v>
       </c>
-      <c r="E168" s="5"/>
+      <c r="E168" s="5" t="s">
+        <v>433</v>
+      </c>
       <c r="F168" s="3"/>
       <c r="G168" s="12"/>
       <c r="H168" s="13"/>
       <c r="I168" s="16"/>
       <c r="J168" s="5"/>
       <c r="K168" s="18"/>
-      <c r="L168" s="3"/>
+      <c r="L168" s="3" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C169" s="4">
         <v>26</v>
@@ -4458,7 +5605,9 @@
       <c r="D169">
         <v>985</v>
       </c>
-      <c r="E169" s="5"/>
+      <c r="E169" s="5" t="s">
+        <v>434</v>
+      </c>
       <c r="F169" s="3"/>
       <c r="G169" s="12"/>
       <c r="H169" s="13"/>
@@ -4470,7 +5619,7 @@
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C170" s="4">
         <v>26</v>
@@ -4478,19 +5627,23 @@
       <c r="D170">
         <v>986</v>
       </c>
-      <c r="E170" s="5"/>
+      <c r="E170" s="5" t="s">
+        <v>435</v>
+      </c>
       <c r="F170" s="3"/>
       <c r="G170" s="12"/>
       <c r="H170" s="13"/>
       <c r="I170" s="16"/>
       <c r="J170" s="5"/>
       <c r="K170" s="18"/>
-      <c r="L170" s="3"/>
+      <c r="L170" s="3" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C171" s="4">
         <v>26</v>
@@ -4498,7 +5651,9 @@
       <c r="D171">
         <v>987</v>
       </c>
-      <c r="E171" s="5"/>
+      <c r="E171" s="5" t="s">
+        <v>436</v>
+      </c>
       <c r="F171" s="3"/>
       <c r="G171" s="12"/>
       <c r="H171" s="13"/>
@@ -4510,7 +5665,7 @@
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C172" s="4">
         <v>26</v>
@@ -4518,7 +5673,9 @@
       <c r="D172">
         <v>988</v>
       </c>
-      <c r="E172" s="5"/>
+      <c r="E172" s="5" t="s">
+        <v>437</v>
+      </c>
       <c r="F172" s="3"/>
       <c r="G172" s="12"/>
       <c r="H172" s="13"/>
@@ -4530,7 +5687,7 @@
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C173" s="4">
         <v>26</v>
@@ -4538,7 +5695,9 @@
       <c r="D173">
         <v>989</v>
       </c>
-      <c r="E173" s="5"/>
+      <c r="E173" s="5" t="s">
+        <v>438</v>
+      </c>
       <c r="F173" s="3"/>
       <c r="G173" s="12"/>
       <c r="H173" s="13"/>
@@ -4550,7 +5709,7 @@
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C174" s="4">
         <v>26</v>
@@ -4558,7 +5717,9 @@
       <c r="D174">
         <v>990</v>
       </c>
-      <c r="E174" s="5"/>
+      <c r="E174" s="5" t="s">
+        <v>439</v>
+      </c>
       <c r="F174" s="3"/>
       <c r="G174" s="12"/>
       <c r="H174" s="13"/>
@@ -4570,7 +5731,7 @@
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C175" s="4">
         <v>26</v>
@@ -4578,19 +5739,23 @@
       <c r="D175">
         <v>991</v>
       </c>
-      <c r="E175" s="5"/>
+      <c r="E175" s="5" t="s">
+        <v>440</v>
+      </c>
       <c r="F175" s="3"/>
       <c r="G175" s="12"/>
       <c r="H175" s="13"/>
       <c r="I175" s="16"/>
       <c r="J175" s="5"/>
       <c r="K175" s="18"/>
-      <c r="L175" s="3"/>
+      <c r="L175" s="3" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C176" s="4">
         <v>26</v>
@@ -4598,19 +5763,23 @@
       <c r="D176">
         <v>992</v>
       </c>
-      <c r="E176" s="5"/>
+      <c r="E176" s="5" t="s">
+        <v>441</v>
+      </c>
       <c r="F176" s="3"/>
       <c r="G176" s="12"/>
       <c r="H176" s="13"/>
       <c r="I176" s="16"/>
       <c r="J176" s="5"/>
       <c r="K176" s="18"/>
-      <c r="L176" s="3"/>
+      <c r="L176" s="3" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C177" s="4">
         <v>26</v>
@@ -4618,19 +5787,23 @@
       <c r="D177">
         <v>993</v>
       </c>
-      <c r="E177" s="5"/>
+      <c r="E177" s="5" t="s">
+        <v>442</v>
+      </c>
       <c r="F177" s="3"/>
       <c r="G177" s="12"/>
       <c r="H177" s="13"/>
       <c r="I177" s="16"/>
       <c r="J177" s="5"/>
       <c r="K177" s="18"/>
-      <c r="L177" s="3"/>
+      <c r="L177" s="3" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C178" s="4">
         <v>26</v>
@@ -4638,7 +5811,9 @@
       <c r="D178">
         <v>994</v>
       </c>
-      <c r="E178" s="5"/>
+      <c r="E178" s="5" t="s">
+        <v>443</v>
+      </c>
       <c r="F178" s="3"/>
       <c r="G178" s="12"/>
       <c r="H178" s="13"/>
@@ -4650,7 +5825,7 @@
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C179" s="4">
         <v>26</v>
@@ -4658,7 +5833,9 @@
       <c r="D179">
         <v>995</v>
       </c>
-      <c r="E179" s="5"/>
+      <c r="E179" s="5" t="s">
+        <v>444</v>
+      </c>
       <c r="F179" s="3"/>
       <c r="G179" s="12"/>
       <c r="H179" s="13"/>
@@ -4670,7 +5847,7 @@
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C180" s="4">
         <v>26</v>
@@ -4678,7 +5855,9 @@
       <c r="D180">
         <v>996</v>
       </c>
-      <c r="E180" s="5"/>
+      <c r="E180" s="5" t="s">
+        <v>445</v>
+      </c>
       <c r="F180" s="3"/>
       <c r="G180" s="12"/>
       <c r="H180" s="13"/>
@@ -4690,7 +5869,7 @@
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C181" s="4">
         <v>26</v>
@@ -4698,7 +5877,9 @@
       <c r="D181">
         <v>997</v>
       </c>
-      <c r="E181" s="5"/>
+      <c r="E181" s="5" t="s">
+        <v>446</v>
+      </c>
       <c r="F181" s="3"/>
       <c r="G181" s="12"/>
       <c r="H181" s="13"/>
@@ -4710,7 +5891,7 @@
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C182" s="4">
         <v>26</v>
@@ -4718,7 +5899,9 @@
       <c r="D182">
         <v>998</v>
       </c>
-      <c r="E182" s="5"/>
+      <c r="E182" s="5" t="s">
+        <v>447</v>
+      </c>
       <c r="F182" s="3"/>
       <c r="G182" s="12"/>
       <c r="H182" s="13"/>
@@ -4730,7 +5913,7 @@
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C183" s="4">
         <v>26</v>
@@ -4738,7 +5921,9 @@
       <c r="D183">
         <v>999</v>
       </c>
-      <c r="E183" s="5"/>
+      <c r="E183" s="5" t="s">
+        <v>448</v>
+      </c>
       <c r="F183" s="3"/>
       <c r="G183" s="12"/>
       <c r="H183" s="13"/>
@@ -4750,7 +5935,7 @@
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C184" s="4">
         <v>26</v>
@@ -4758,7 +5943,9 @@
       <c r="D184">
         <v>1000</v>
       </c>
-      <c r="E184" s="5"/>
+      <c r="E184" s="5" t="s">
+        <v>449</v>
+      </c>
       <c r="F184" s="3"/>
       <c r="G184" s="12"/>
       <c r="H184" s="13"/>
@@ -4770,7 +5957,7 @@
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C185" s="4">
         <v>26</v>
@@ -4778,7 +5965,9 @@
       <c r="D185">
         <v>1001</v>
       </c>
-      <c r="E185" s="5"/>
+      <c r="E185" s="5" t="s">
+        <v>450</v>
+      </c>
       <c r="F185" s="3"/>
       <c r="G185" s="12"/>
       <c r="H185" s="13"/>
@@ -4790,7 +5979,7 @@
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C186" s="4">
         <v>26</v>
@@ -4798,7 +5987,9 @@
       <c r="D186">
         <v>1002</v>
       </c>
-      <c r="E186" s="5"/>
+      <c r="E186" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="F186" s="3"/>
       <c r="G186" s="12"/>
       <c r="H186" s="13"/>
@@ -4810,7 +6001,7 @@
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C187" s="4">
         <v>26</v>
@@ -4818,7 +6009,9 @@
       <c r="D187">
         <v>1003</v>
       </c>
-      <c r="E187" s="5"/>
+      <c r="E187" s="5" t="s">
+        <v>452</v>
+      </c>
       <c r="F187" s="3"/>
       <c r="G187" s="12"/>
       <c r="H187" s="13"/>
@@ -4830,7 +6023,7 @@
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C188" s="4">
         <v>26</v>
@@ -4838,7 +6031,9 @@
       <c r="D188">
         <v>1004</v>
       </c>
-      <c r="E188" s="5"/>
+      <c r="E188" s="5" t="s">
+        <v>453</v>
+      </c>
       <c r="F188" s="3"/>
       <c r="G188" s="12"/>
       <c r="H188" s="13"/>
@@ -4850,7 +6045,7 @@
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C189" s="4">
         <v>26</v>
@@ -4858,7 +6053,9 @@
       <c r="D189">
         <v>1005</v>
       </c>
-      <c r="E189" s="5"/>
+      <c r="E189" s="5" t="s">
+        <v>454</v>
+      </c>
       <c r="F189" s="3"/>
       <c r="G189" s="12"/>
       <c r="H189" s="13"/>
@@ -4870,7 +6067,7 @@
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C190" s="4">
         <v>26</v>
@@ -4878,7 +6075,9 @@
       <c r="D190">
         <v>1006</v>
       </c>
-      <c r="E190" s="5"/>
+      <c r="E190" s="5" t="s">
+        <v>455</v>
+      </c>
       <c r="F190" s="3"/>
       <c r="G190" s="12"/>
       <c r="H190" s="13"/>
@@ -4890,7 +6089,7 @@
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C191" s="4">
         <v>26</v>
@@ -4898,19 +6097,23 @@
       <c r="D191">
         <v>1007</v>
       </c>
-      <c r="E191" s="5"/>
+      <c r="E191" s="5" t="s">
+        <v>456</v>
+      </c>
       <c r="F191" s="3"/>
       <c r="G191" s="12"/>
       <c r="H191" s="13"/>
       <c r="I191" s="16"/>
       <c r="J191" s="5"/>
       <c r="K191" s="18"/>
-      <c r="L191" s="3"/>
+      <c r="L191" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C192" s="4">
         <v>26</v>
@@ -4918,7 +6121,9 @@
       <c r="D192">
         <v>1008</v>
       </c>
-      <c r="E192" s="5"/>
+      <c r="E192" s="5" t="s">
+        <v>457</v>
+      </c>
       <c r="F192" s="3"/>
       <c r="G192" s="12"/>
       <c r="H192" s="13"/>
@@ -4930,7 +6135,7 @@
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C193" s="4">
         <v>26</v>
@@ -4938,19 +6143,23 @@
       <c r="D193">
         <v>1009</v>
       </c>
-      <c r="E193" s="5"/>
+      <c r="E193" s="5" t="s">
+        <v>458</v>
+      </c>
       <c r="F193" s="3"/>
       <c r="G193" s="12"/>
       <c r="H193" s="13"/>
       <c r="I193" s="16"/>
       <c r="J193" s="5"/>
       <c r="K193" s="18"/>
-      <c r="L193" s="3"/>
+      <c r="L193" s="3" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C194" s="4">
         <v>26</v>
@@ -4958,7 +6167,9 @@
       <c r="D194">
         <v>1010</v>
       </c>
-      <c r="E194" s="5"/>
+      <c r="E194" s="5" t="s">
+        <v>459</v>
+      </c>
       <c r="F194" s="3"/>
       <c r="G194" s="12"/>
       <c r="H194" s="13"/>
@@ -4970,7 +6181,7 @@
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C195" s="4">
         <v>26</v>
@@ -4978,7 +6189,9 @@
       <c r="D195">
         <v>1011</v>
       </c>
-      <c r="E195" s="5"/>
+      <c r="E195" s="5" t="s">
+        <v>460</v>
+      </c>
       <c r="F195" s="3"/>
       <c r="G195" s="12"/>
       <c r="H195" s="13"/>
@@ -4990,7 +6203,7 @@
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C196" s="4">
         <v>26</v>
@@ -4998,7 +6211,9 @@
       <c r="D196">
         <v>1012</v>
       </c>
-      <c r="E196" s="5"/>
+      <c r="E196" s="5" t="s">
+        <v>461</v>
+      </c>
       <c r="F196" s="3"/>
       <c r="G196" s="12"/>
       <c r="H196" s="13"/>
@@ -5010,7 +6225,7 @@
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C197" s="4">
         <v>26</v>
@@ -5018,7 +6233,9 @@
       <c r="D197">
         <v>1013</v>
       </c>
-      <c r="E197" s="5"/>
+      <c r="E197" s="5" t="s">
+        <v>462</v>
+      </c>
       <c r="F197" s="3"/>
       <c r="G197" s="12"/>
       <c r="H197" s="13"/>
@@ -5030,7 +6247,7 @@
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C198" s="4">
         <v>26</v>
@@ -5038,7 +6255,9 @@
       <c r="D198">
         <v>1014</v>
       </c>
-      <c r="E198" s="5"/>
+      <c r="E198" s="5" t="s">
+        <v>463</v>
+      </c>
       <c r="F198" s="3"/>
       <c r="G198" s="12"/>
       <c r="H198" s="13"/>
@@ -5050,7 +6269,7 @@
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C199" s="4">
         <v>26</v>
@@ -5058,7 +6277,9 @@
       <c r="D199">
         <v>1015</v>
       </c>
-      <c r="E199" s="5"/>
+      <c r="E199" s="5" t="s">
+        <v>464</v>
+      </c>
       <c r="F199" s="3"/>
       <c r="G199" s="12"/>
       <c r="H199" s="13"/>
@@ -5070,7 +6291,7 @@
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C200" s="4">
         <v>26</v>
@@ -5078,7 +6299,9 @@
       <c r="D200">
         <v>1016</v>
       </c>
-      <c r="E200" s="5"/>
+      <c r="E200" s="5" t="s">
+        <v>465</v>
+      </c>
       <c r="F200" s="3"/>
       <c r="G200" s="12"/>
       <c r="H200" s="13"/>
@@ -5090,7 +6313,7 @@
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C201" s="4">
         <v>26</v>
@@ -5098,7 +6321,9 @@
       <c r="D201">
         <v>1017</v>
       </c>
-      <c r="E201" s="5"/>
+      <c r="E201" s="5" t="s">
+        <v>466</v>
+      </c>
       <c r="F201" s="3"/>
       <c r="G201" s="12"/>
       <c r="H201" s="13"/>
@@ -5110,7 +6335,7 @@
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C202" s="4">
         <v>26</v>
@@ -5118,7 +6343,9 @@
       <c r="D202">
         <v>1018</v>
       </c>
-      <c r="E202" s="5"/>
+      <c r="E202" s="5" t="s">
+        <v>467</v>
+      </c>
       <c r="F202" s="3"/>
       <c r="G202" s="12"/>
       <c r="H202" s="13"/>
@@ -5130,7 +6357,7 @@
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C203" s="4">
         <v>26</v>
@@ -5138,7 +6365,9 @@
       <c r="D203">
         <v>1019</v>
       </c>
-      <c r="E203" s="5"/>
+      <c r="E203" s="5" t="s">
+        <v>468</v>
+      </c>
       <c r="F203" s="3"/>
       <c r="G203" s="12"/>
       <c r="H203" s="13"/>
@@ -5150,7 +6379,7 @@
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C204" s="4">
         <v>26</v>
@@ -5158,7 +6387,9 @@
       <c r="D204">
         <v>1020</v>
       </c>
-      <c r="E204" s="5"/>
+      <c r="E204" s="5" t="s">
+        <v>469</v>
+      </c>
       <c r="F204" s="3"/>
       <c r="G204" s="12"/>
       <c r="H204" s="13"/>
@@ -5170,7 +6401,7 @@
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C205" s="4">
         <v>26</v>
@@ -5178,7 +6409,9 @@
       <c r="D205">
         <v>1021</v>
       </c>
-      <c r="E205" s="5"/>
+      <c r="E205" s="5" t="s">
+        <v>470</v>
+      </c>
       <c r="F205" s="3"/>
       <c r="G205" s="12"/>
       <c r="H205" s="13"/>
@@ -5189,7 +6422,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B206" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C206" s="4">
         <v>26</v>
@@ -5197,11 +6430,13 @@
       <c r="D206">
         <v>1022</v>
       </c>
-      <c r="E206" s="5"/>
+      <c r="E206" s="5" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B207" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C207" s="4">
         <v>26</v>
@@ -5209,11 +6444,13 @@
       <c r="D207">
         <v>1023</v>
       </c>
-      <c r="E207" s="5"/>
+      <c r="E207" s="5" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B208" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C208" s="4">
         <v>26</v>
@@ -5221,11 +6458,13 @@
       <c r="D208">
         <v>1024</v>
       </c>
-      <c r="E208" s="5"/>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E208" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="209" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B209" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C209" s="4">
         <v>26</v>
@@ -5233,10 +6472,13 @@
       <c r="D209">
         <v>1025</v>
       </c>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E209" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="210" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B210" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C210" s="4">
         <v>26</v>
@@ -5244,10 +6486,13 @@
       <c r="D210">
         <v>1026</v>
       </c>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E210" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="211" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B211" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C211" s="4">
         <v>26</v>
@@ -5255,11 +6500,13 @@
       <c r="D211">
         <v>1027</v>
       </c>
-      <c r="E211" s="5"/>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E211" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="212" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B212" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C212" s="4">
         <v>26</v>
@@ -5267,11 +6514,13 @@
       <c r="D212">
         <v>1028</v>
       </c>
-      <c r="E212" s="5"/>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E212" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="213" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B213" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C213" s="4">
         <v>26</v>
@@ -5279,11 +6528,13 @@
       <c r="D213">
         <v>1029</v>
       </c>
-      <c r="E213" s="5"/>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E213" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="214" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B214" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C214" s="4">
         <v>26</v>
@@ -5291,11 +6542,13 @@
       <c r="D214">
         <v>1030</v>
       </c>
-      <c r="E214" s="5"/>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E214" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="215" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B215" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C215" s="4">
         <v>26</v>
@@ -5303,11 +6556,13 @@
       <c r="D215">
         <v>1031</v>
       </c>
-      <c r="E215" s="5"/>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E215" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="216" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B216" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C216" s="4">
         <v>26</v>
@@ -5315,11 +6570,13 @@
       <c r="D216">
         <v>1032</v>
       </c>
-      <c r="E216" s="5"/>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E216" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="217" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B217" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C217" s="4">
         <v>26</v>
@@ -5327,10 +6584,13 @@
       <c r="D217">
         <v>1033</v>
       </c>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E217" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="218" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B218" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C218" s="4">
         <v>26</v>
@@ -5338,10 +6598,13 @@
       <c r="D218">
         <v>1034</v>
       </c>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E218" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="219" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B219" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C219" s="4">
         <v>26</v>
@@ -5349,11 +6612,13 @@
       <c r="D219">
         <v>1035</v>
       </c>
-      <c r="E219" s="5"/>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E219" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="220" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B220" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C220" s="4">
         <v>26</v>
@@ -5361,11 +6626,13 @@
       <c r="D220">
         <v>1036</v>
       </c>
-      <c r="E220" s="5"/>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E220" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="221" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B221" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C221" s="4">
         <v>26</v>
@@ -5373,10 +6640,13 @@
       <c r="D221">
         <v>1037</v>
       </c>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E221" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="222" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B222" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C222" s="4">
         <v>26</v>
@@ -5384,10 +6654,13 @@
       <c r="D222">
         <v>1038</v>
       </c>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E222" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="223" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B223" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C223" s="4">
         <v>26</v>
@@ -5395,10 +6668,16 @@
       <c r="D223">
         <v>1039</v>
       </c>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E223" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="L223" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="224" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B224" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C224" s="4">
         <v>26</v>
@@ -5406,10 +6685,16 @@
       <c r="D224">
         <v>1040</v>
       </c>
-    </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E224" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="L224" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B225" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C225" s="4">
         <v>26</v>
@@ -5417,10 +6702,13 @@
       <c r="D225">
         <v>1041</v>
       </c>
-    </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E225" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B226" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C226" s="4">
         <v>26</v>
@@ -5428,10 +6716,13 @@
       <c r="D226">
         <v>1042</v>
       </c>
-    </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E226" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B227" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C227" s="4">
         <v>26</v>
@@ -5439,10 +6730,13 @@
       <c r="D227">
         <v>1043</v>
       </c>
-    </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E227" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B228" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C228" s="4">
         <v>26</v>
@@ -5450,10 +6744,13 @@
       <c r="D228">
         <v>1044</v>
       </c>
-    </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E228" s="5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B229" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C229" s="4">
         <v>26</v>
@@ -5461,10 +6758,13 @@
       <c r="D229">
         <v>1045</v>
       </c>
-    </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E229" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B230" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C230" s="4">
         <v>26</v>
@@ -5472,10 +6772,13 @@
       <c r="D230">
         <v>1046</v>
       </c>
-    </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E230" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B231" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C231" s="4">
         <v>26</v>
@@ -5483,10 +6786,13 @@
       <c r="D231">
         <v>1047</v>
       </c>
-    </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E231" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B232" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C232" s="4">
         <v>26</v>
@@ -5494,10 +6800,13 @@
       <c r="D232">
         <v>1048</v>
       </c>
-    </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E232" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B233" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C233" s="4">
         <v>26</v>
@@ -5505,10 +6814,13 @@
       <c r="D233">
         <v>1049</v>
       </c>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E233" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B234" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C234" s="4">
         <v>26</v>
@@ -5516,10 +6828,13 @@
       <c r="D234">
         <v>1050</v>
       </c>
-    </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E234" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B235" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C235" s="4">
         <v>26</v>
@@ -5527,10 +6842,13 @@
       <c r="D235">
         <v>1051</v>
       </c>
-    </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E235" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B236" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C236" s="4">
         <v>26</v>
@@ -5538,10 +6856,13 @@
       <c r="D236">
         <v>1052</v>
       </c>
-    </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E236" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B237" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C237" s="4">
         <v>26</v>
@@ -5549,10 +6870,13 @@
       <c r="D237">
         <v>1053</v>
       </c>
-    </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E237" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B238" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C238" s="4">
         <v>26</v>
@@ -5560,10 +6884,13 @@
       <c r="D238">
         <v>1054</v>
       </c>
-    </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E238" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B239" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C239" s="4">
         <v>26</v>
@@ -5571,10 +6898,13 @@
       <c r="D239">
         <v>1055</v>
       </c>
-    </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E239" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B240" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C240" s="4">
         <v>26</v>
@@ -5582,10 +6912,13 @@
       <c r="D240">
         <v>1056</v>
       </c>
-    </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B241" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C241" s="4">
         <v>26</v>
@@ -5593,10 +6926,13 @@
       <c r="D241">
         <v>1057</v>
       </c>
-    </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E241" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B242" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C242" s="4">
         <v>26</v>
@@ -5604,10 +6940,13 @@
       <c r="D242">
         <v>1058</v>
       </c>
-    </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E242" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B243" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C243" s="4">
         <v>26</v>
@@ -5615,10 +6954,13 @@
       <c r="D243">
         <v>1059</v>
       </c>
-    </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E243" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B244" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C244" s="4">
         <v>26</v>
@@ -5626,10 +6968,13 @@
       <c r="D244">
         <v>1060</v>
       </c>
-    </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E244" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B245" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C245" s="4">
         <v>26</v>
@@ -5637,10 +6982,13 @@
       <c r="D245">
         <v>1061</v>
       </c>
-    </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E245" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B246" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C246" s="4">
         <v>26</v>
@@ -5648,10 +6996,13 @@
       <c r="D246">
         <v>1062</v>
       </c>
-    </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E246" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B247" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C247" s="4">
         <v>26</v>
@@ -5659,10 +7010,13 @@
       <c r="D247">
         <v>1063</v>
       </c>
-    </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E247" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B248" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C248" s="4">
         <v>26</v>
@@ -5670,36 +7024,39 @@
       <c r="D248">
         <v>1064</v>
       </c>
-    </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E248" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B249" s="3"/>
       <c r="C249" s="4"/>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B250" s="3"/>
       <c r="C250" s="4"/>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B251" s="3"/>
       <c r="C251" s="4"/>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B252" s="3"/>
       <c r="C252" s="4"/>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B253" s="3"/>
       <c r="C253" s="4"/>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B254" s="3"/>
       <c r="C254" s="4"/>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B255" s="3"/>
       <c r="C255" s="4"/>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B256" s="3"/>
       <c r="C256" s="4"/>
     </row>
